--- a/src/main/others/FairyList.xlsx
+++ b/src/main/others/FairyList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CDC489-9724-475C-A0C1-657B0F3D5951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B11068-02C8-4A04-B3BB-33FDC28F98D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7395" yWindow="1290" windowWidth="20325" windowHeight="14115" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
   </bookViews>
@@ -2607,12 +2607,6 @@
     <t>空間</t>
   </si>
   <si>
-    <t>縮地</t>
-  </si>
-  <si>
-    <t>射出</t>
-  </si>
-  <si>
     <t>破壊</t>
   </si>
   <si>
@@ -4569,6 +4563,17 @@
   </si>
   <si>
     <t>flower_picking_bell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縮地</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運動</t>
+    <rPh sb="0" eb="2">
+      <t>ウンドウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5335,7 +5340,7 @@
     <tableColumn id="25" xr3:uid="{3CFDC570-BDAB-4914-ABC3-2C36BC441EFF}" name="音波" dataDxfId="25"/>
     <tableColumn id="27" xr3:uid="{57B5D258-645E-405C-8646-A5BA9977E94A}" name="空間" dataDxfId="24"/>
     <tableColumn id="28" xr3:uid="{FC7CB677-4A50-4B6E-A9B9-30E79C62F98D}" name="縮地" dataDxfId="23"/>
-    <tableColumn id="29" xr3:uid="{0A208B09-58DF-41DC-8C05-5263F315034B}" name="射出" dataDxfId="22"/>
+    <tableColumn id="29" xr3:uid="{0A208B09-58DF-41DC-8C05-5263F315034B}" name="運動" dataDxfId="22"/>
     <tableColumn id="31" xr3:uid="{B7C69519-DEF6-4AE2-A3F5-853F5A3D600F}" name="破壊" dataDxfId="21"/>
     <tableColumn id="32" xr3:uid="{EF23F12F-E8B4-4880-9CA7-0217FC0413E6}" name="化学" dataDxfId="20"/>
     <tableColumn id="33" xr3:uid="{D40F96E4-B2C9-4D5D-AB4C-D11CBE93B14C}" name="切断" dataDxfId="19"/>
@@ -5631,10 +5636,10 @@
   <dimension ref="A1:BC214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="Y86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H168" sqref="H168"/>
+      <selection pane="bottomRight" activeCell="AM94" sqref="AM94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5681,7 +5686,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>160</v>
@@ -5717,7 +5722,7 @@
         <v>22</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V1" s="14" t="s">
         <v>30</v>
@@ -5762,64 +5767,64 @@
         <v>592</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AK1" s="14" t="s">
         <v>593</v>
       </c>
       <c r="AL1" s="14" t="s">
+        <v>983</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>984</v>
+      </c>
+      <c r="AN1" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AP1" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AQ1" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="AR1" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="AP1" s="14" t="s">
+      <c r="AS1" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AT1" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="AU1" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="AV1" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="AW1" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="AY1" s="14" t="s">
         <v>694</v>
-      </c>
-      <c r="AR1" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="AS1" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="AT1" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="AU1" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="AV1" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="AW1" s="14" t="s">
-        <v>604</v>
-      </c>
-      <c r="AX1" s="14" t="s">
-        <v>695</v>
-      </c>
-      <c r="AY1" s="14" t="s">
-        <v>696</v>
       </c>
       <c r="AZ1" s="14" t="s">
         <v>426</v>
       </c>
       <c r="BA1" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.15">
@@ -5848,10 +5853,10 @@
         <v>14</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
@@ -5990,7 +5995,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>125</v>
@@ -6138,7 +6143,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>127</v>
@@ -6440,7 +6445,7 @@
         <v>97</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>177</v>
@@ -6580,7 +6585,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>126</v>
@@ -6718,7 +6723,7 @@
         <v>91</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>172</v>
@@ -6866,10 +6871,10 @@
         <v>93</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K9" s="3">
         <v>4</v>
@@ -7018,7 +7023,7 @@
         <v>96</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>163</v>
@@ -7170,7 +7175,7 @@
         <v>122</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>180</v>
@@ -7484,7 +7489,7 @@
         <v>98</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>168</v>
@@ -7624,7 +7629,7 @@
         <v>92</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>572</v>
@@ -7774,10 +7779,10 @@
         <v>105</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="K15" s="3">
         <v>2</v>
@@ -7911,7 +7916,7 @@
         <v>229</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>44</v>
@@ -7926,7 +7931,7 @@
         <v>104</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>167</v>
@@ -8071,7 +8076,7 @@
         <v>229</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>42</v>
@@ -8086,10 +8091,10 @@
         <v>102</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -8229,7 +8234,7 @@
         <v>229</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>43</v>
@@ -8244,7 +8249,7 @@
         <v>103</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>175</v>
@@ -8400,7 +8405,7 @@
         <v>106</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>179</v>
@@ -8538,7 +8543,7 @@
         <v>101</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J20" s="10" t="s">
         <v>174</v>
@@ -8680,7 +8685,7 @@
         <v>108</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>254</v>
@@ -8828,13 +8833,13 @@
         <v>309</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>166</v>
@@ -8982,7 +8987,7 @@
         <v>114</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>161</v>
@@ -9122,13 +9127,13 @@
         <v>311</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>99</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>252</v>
@@ -9268,7 +9273,7 @@
         <v>94</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>251</v>
@@ -9414,7 +9419,7 @@
         <v>95</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>171</v>
@@ -9542,7 +9547,7 @@
         <v>242</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>406</v>
@@ -9551,10 +9556,10 @@
         <v>123</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>181</v>
@@ -9695,19 +9700,19 @@
         <v>229</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>314</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>44</v>
@@ -9853,7 +9858,7 @@
         <v>229</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>60</v>
@@ -9868,7 +9873,7 @@
         <v>121</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>178</v>
@@ -10030,7 +10035,7 @@
         <v>115</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>169</v>
@@ -10188,7 +10193,7 @@
         <v>249</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>250</v>
@@ -10338,7 +10343,7 @@
         <v>109</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>256</v>
@@ -10476,7 +10481,7 @@
         <v>245</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>401</v>
@@ -10485,10 +10490,10 @@
         <v>547</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>255</v>
@@ -10620,7 +10625,7 @@
         <v>107</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>570</v>
@@ -11178,7 +11183,7 @@
         <v>117</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J38" s="10" t="s">
         <v>183</v>
@@ -11320,7 +11325,7 @@
         <v>116</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J39" s="10" t="s">
         <v>170</v>
@@ -11453,7 +11458,7 @@
         <v>232</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>49</v>
@@ -11468,7 +11473,7 @@
         <v>110</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J40" s="10" t="s">
         <v>173</v>
@@ -11593,7 +11598,7 @@
         <v>232</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>50</v>
@@ -11608,7 +11613,7 @@
         <v>111</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J41" s="10" t="s">
         <v>223</v>
@@ -11756,7 +11761,7 @@
         <v>279</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>281</v>
@@ -11898,7 +11903,7 @@
         <v>274</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J43" s="10" t="s">
         <v>282</v>
@@ -12036,7 +12041,7 @@
         <v>273</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J44" s="10" t="s">
         <v>283</v>
@@ -12188,7 +12193,7 @@
         <v>276</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J45" s="10" t="s">
         <v>288</v>
@@ -12332,7 +12337,7 @@
         <v>277</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J46" s="10" t="s">
         <v>284</v>
@@ -12456,7 +12461,7 @@
         <v>245</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>330</v>
@@ -12465,10 +12470,10 @@
         <v>550</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J47" s="10" t="s">
         <v>285</v>
@@ -12604,7 +12609,7 @@
         <v>278</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J48" s="10" t="s">
         <v>286</v>
@@ -12760,7 +12765,7 @@
         <v>280</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J49" s="10" t="s">
         <v>287</v>
@@ -12900,13 +12905,13 @@
         <v>399</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>275</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J50" s="10" t="s">
         <v>289</v>
@@ -13035,7 +13040,7 @@
         <v>232</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>266</v>
@@ -13050,7 +13055,7 @@
         <v>272</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J51" s="10" t="s">
         <v>290</v>
@@ -13188,7 +13193,7 @@
         <v>360</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J52" s="10" t="s">
         <v>372</v>
@@ -13908,7 +13913,7 @@
         <v>365</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J57" s="10" t="s">
         <v>377</v>
@@ -14050,7 +14055,7 @@
         <v>366</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J58" s="10" t="s">
         <v>379</v>
@@ -14186,7 +14191,7 @@
         <v>367</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J59" s="10" t="s">
         <v>371</v>
@@ -14466,7 +14471,7 @@
         <v>359</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J61" s="10" t="s">
         <v>380</v>
@@ -14610,7 +14615,7 @@
         <v>409</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J62" s="10" t="s">
         <v>431</v>
@@ -14754,7 +14759,7 @@
         <v>413</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J63" s="10" t="s">
         <v>432</v>
@@ -14896,7 +14901,7 @@
         <v>408</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J64" s="10" t="s">
         <v>436</v>
@@ -15213,19 +15218,19 @@
         <v>229</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>394</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>60</v>
@@ -15364,7 +15369,7 @@
         <v>245</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>392</v>
@@ -15373,10 +15378,10 @@
         <v>417</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J67" s="10" t="s">
         <v>434</v>
@@ -15534,7 +15539,7 @@
         <v>410</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J68" s="10" t="s">
         <v>427</v>
@@ -15674,7 +15679,7 @@
         <v>411</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J69" s="10" t="s">
         <v>428</v>
@@ -15812,7 +15817,7 @@
         <v>412</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J70" s="10" t="s">
         <v>429</v>
@@ -15954,7 +15959,7 @@
         <v>407</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J71" s="10" t="s">
         <v>430</v>
@@ -16078,7 +16083,7 @@
         <v>454</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J72" s="10" t="s">
         <v>477</v>
@@ -16226,7 +16231,7 @@
         <v>455</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J73" s="10" t="s">
         <v>476</v>
@@ -16380,7 +16385,7 @@
         <v>456</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J74" s="10" t="s">
         <v>474</v>
@@ -16534,7 +16539,7 @@
         <v>457</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J75" s="10" t="s">
         <v>479</v>
@@ -16682,7 +16687,7 @@
         <v>458</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J76" s="10" t="s">
         <v>475</v>
@@ -16832,7 +16837,7 @@
         <v>459</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J77" s="10" t="s">
         <v>473</v>
@@ -16982,7 +16987,7 @@
         <v>460</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J78" s="10" t="s">
         <v>472</v>
@@ -17128,7 +17133,7 @@
         <v>461</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J79" s="10" t="s">
         <v>478</v>
@@ -17406,19 +17411,19 @@
         <v>242</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>471</v>
       </c>
       <c r="G81" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="H81" s="6" t="s">
-        <v>797</v>
-      </c>
       <c r="I81" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J81" s="10" t="s">
         <v>480</v>
@@ -17592,7 +17597,7 @@
         <v>505</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J82" s="10" t="s">
         <v>512</v>
@@ -17730,19 +17735,19 @@
         <v>240</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>490</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J83" s="10" t="s">
         <v>513</v>
@@ -17875,7 +17880,7 @@
         <v>229</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>488</v>
@@ -17890,7 +17895,7 @@
         <v>506</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J84" s="10" t="s">
         <v>514</v>
@@ -18042,7 +18047,7 @@
         <v>507</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J85" s="10" t="s">
         <v>515</v>
@@ -18184,7 +18189,7 @@
         <v>370</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>498</v>
@@ -18193,10 +18198,10 @@
         <v>558</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J86" s="10" t="s">
         <v>516</v>
@@ -18320,19 +18325,19 @@
         <v>245</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>493</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J87" s="10" t="s">
         <v>517</v>
@@ -18453,7 +18458,7 @@
         <v>232</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>482</v>
@@ -18468,7 +18473,7 @@
         <v>508</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J88" s="10" t="s">
         <v>518</v>
@@ -18607,7 +18612,7 @@
         <v>232</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>484</v>
@@ -18622,7 +18627,7 @@
         <v>509</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J89" s="10" t="s">
         <v>519</v>
@@ -18757,7 +18762,7 @@
         <v>232</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>485</v>
@@ -18772,7 +18777,7 @@
         <v>510</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J90" s="10" t="s">
         <v>520</v>
@@ -18928,7 +18933,7 @@
         <v>511</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J91" s="10" t="s">
         <v>521</v>
@@ -19068,7 +19073,7 @@
         <v>559</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J92" s="10" t="s">
         <v>576</v>
@@ -19214,7 +19219,7 @@
         <v>561</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J93" s="10" t="s">
         <v>575</v>
@@ -19372,7 +19377,7 @@
         <v>560</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J94" s="10" t="s">
         <v>574</v>
@@ -19524,7 +19529,7 @@
         <v>562</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J95" s="10" t="s">
         <v>567</v>
@@ -19678,7 +19683,7 @@
         <v>563</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J96" s="10" t="s">
         <v>568</v>
@@ -19824,7 +19829,7 @@
         <v>566</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J97" s="10" t="s">
         <v>569</v>
@@ -19968,7 +19973,7 @@
         <v>564</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J98" s="10" t="s">
         <v>583</v>
@@ -20110,7 +20115,7 @@
         <v>565</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J99" s="10" t="s">
         <v>571</v>
@@ -20234,7 +20239,7 @@
         <v>369</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>577</v>
@@ -20243,13 +20248,13 @@
         <v>580</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K100" s="3">
         <v>4</v>
@@ -20378,19 +20383,19 @@
         <v>369</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>582</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J101" s="10" t="s">
         <v>573</v>
@@ -20521,25 +20526,25 @@
         <v>232</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E102" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="G102" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="H102" s="6" t="s">
         <v>615</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>617</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>343</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K102" s="3">
         <v>4</v>
@@ -20662,22 +20667,22 @@
         <v>369</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="K103" s="3">
         <v>2</v>
@@ -20804,22 +20809,22 @@
         <v>243</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="K104" s="3">
         <v>4</v>
@@ -20948,22 +20953,22 @@
         <v>243</v>
       </c>
       <c r="E105" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="H105" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="F105" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>622</v>
-      </c>
       <c r="I105" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K105" s="3">
         <v>3</v>
@@ -21094,22 +21099,22 @@
         <v>369</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K106" s="3">
         <v>3</v>
@@ -21230,22 +21235,22 @@
         <v>369</v>
       </c>
       <c r="E107" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="H107" s="6" t="s">
         <v>764</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>766</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>248</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="K107" s="3">
         <v>2</v>
@@ -21368,22 +21373,22 @@
         <v>369</v>
       </c>
       <c r="E108" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="H108" s="6" t="s">
         <v>765</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>767</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>335</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="K108" s="3">
         <v>3</v>
@@ -21504,22 +21509,22 @@
         <v>369</v>
       </c>
       <c r="E109" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="H109" s="6" t="s">
         <v>621</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>623</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>522</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K109" s="3">
         <v>2</v>
@@ -21640,22 +21645,22 @@
         <v>369</v>
       </c>
       <c r="E110" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="H110" s="6" t="s">
         <v>768</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>770</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>261</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K110" s="3">
         <v>3</v>
@@ -21779,25 +21784,25 @@
         <v>229</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E111" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="H111" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="F111" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>613</v>
-      </c>
       <c r="I111" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J111" s="10" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="K111" s="3">
         <v>5</v>
@@ -21941,25 +21946,25 @@
         <v>229</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E112" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="H112" s="6" t="s">
         <v>769</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>771</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="K112" s="3">
         <v>3</v>
@@ -22094,22 +22099,22 @@
         <v>242</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="K113" s="3">
         <v>4</v>
@@ -22253,25 +22258,25 @@
         <v>229</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="K114" s="3">
         <v>3</v>
@@ -22403,25 +22408,25 @@
         <v>229</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="K115" s="3">
         <v>4</v>
@@ -22551,25 +22556,25 @@
         <v>229</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="K116" s="3">
         <v>3</v>
@@ -22710,22 +22715,22 @@
         <v>243</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K117" s="3">
         <v>3</v>
@@ -22858,22 +22863,22 @@
         <v>369</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K118" s="3">
         <v>3</v>
@@ -23002,22 +23007,22 @@
         <v>369</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="K119" s="3">
         <v>3</v>
@@ -23147,25 +23152,25 @@
         <v>232</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K120" s="3">
         <v>5</v>
@@ -23298,22 +23303,22 @@
         <v>240</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>524</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K121" s="3">
         <v>5</v>
@@ -23452,22 +23457,22 @@
         <v>245</v>
       </c>
       <c r="E122" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="F122" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="F122" s="6" t="s">
-        <v>715</v>
-      </c>
       <c r="G122" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J122" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="K122" s="3">
         <v>1</v>
@@ -23590,22 +23595,22 @@
         <v>245</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J123" s="10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="K123" s="3">
         <v>3</v>
@@ -23732,22 +23737,22 @@
         <v>370</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="K124" s="3">
         <v>3</v>
@@ -23874,22 +23879,22 @@
         <v>370</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J125" s="10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K125" s="3">
         <v>3</v>
@@ -24016,22 +24021,22 @@
         <v>243</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J126" s="10" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="K126" s="3">
         <v>4</v>
@@ -24162,22 +24167,22 @@
         <v>369</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="K127" s="3">
         <v>3</v>
@@ -24307,25 +24312,25 @@
         <v>229</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="K128" s="3">
         <v>4</v>
@@ -24450,22 +24455,22 @@
         <v>244</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="K129" s="3">
         <v>3</v>
@@ -24604,22 +24609,22 @@
         <v>246</v>
       </c>
       <c r="E130" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="H130" s="6" t="s">
         <v>698</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>700</v>
       </c>
       <c r="I130" s="6" t="s">
         <v>487</v>
       </c>
       <c r="J130" s="10" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="K130" s="3">
         <v>3</v>
@@ -24752,22 +24757,22 @@
         <v>424</v>
       </c>
       <c r="E131" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="G131" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="F131" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>725</v>
-      </c>
       <c r="H131" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J131" s="10" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K131" s="3">
         <v>5</v>
@@ -24894,22 +24899,22 @@
         <v>242</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J132" s="10" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="K132" s="3">
         <v>5</v>
@@ -25057,25 +25062,25 @@
         <v>229</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I133" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J133" s="10" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K133" s="3">
         <v>5</v>
@@ -25218,22 +25223,22 @@
         <v>243</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J134" s="10" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="K134" s="3">
         <v>2</v>
@@ -25368,22 +25373,22 @@
         <v>243</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J135" s="10" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="K135" s="3">
         <v>3</v>
@@ -25506,22 +25511,22 @@
         <v>370</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F136" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="G136" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="G136" s="6" t="s">
-        <v>835</v>
-      </c>
       <c r="H136" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J136" s="10" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="K136" s="3">
         <v>3</v>
@@ -25648,22 +25653,22 @@
         <v>245</v>
       </c>
       <c r="E137" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="G137" s="6" t="s">
         <v>851</v>
       </c>
-      <c r="F137" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>853</v>
-      </c>
       <c r="H137" s="6" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J137" s="10" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="K137" s="3">
         <v>4</v>
@@ -25796,22 +25801,22 @@
         <v>245</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J138" s="10" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="K138" s="3">
         <v>3</v>
@@ -25942,22 +25947,22 @@
         <v>424</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G139" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="H139" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="H139" s="6" t="s">
-        <v>811</v>
-      </c>
       <c r="I139" s="6" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J139" s="10" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="K139" s="3">
         <v>5</v>
@@ -26098,22 +26103,22 @@
         <v>241</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F140" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="H140" s="6" t="s">
         <v>822</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="H140" s="6" t="s">
-        <v>824</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>386</v>
       </c>
       <c r="J140" s="10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="K140" s="3">
         <v>1</v>
@@ -26240,22 +26245,22 @@
         <v>240</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J141" s="10" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="K141" s="3">
         <v>4</v>
@@ -26390,22 +26395,22 @@
         <v>370</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J142" s="10" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="K142" s="3">
         <v>1</v>
@@ -26532,22 +26537,22 @@
         <v>369</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I143" s="6" t="s">
         <v>339</v>
       </c>
       <c r="J143" s="10" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="K143" s="3">
         <v>2</v>
@@ -26666,22 +26671,22 @@
         <v>244</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J144" s="10" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="K144" s="3">
         <v>3</v>
@@ -26815,19 +26820,19 @@
         <v>159</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J145" s="10" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K145" s="3">
         <v>3</v>
@@ -26961,19 +26966,19 @@
         <v>133</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J146" s="10" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K146" s="3">
         <v>4</v>
@@ -27094,22 +27099,22 @@
         <v>242</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J147" s="10" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="K147" s="3">
         <v>4</v>
@@ -27245,25 +27250,25 @@
         <v>232</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>343</v>
       </c>
       <c r="J148" s="10" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="K148" s="3">
         <v>5</v>
@@ -27388,22 +27393,22 @@
         <v>424</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J149" s="10" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="K149" s="3">
         <v>5</v>
@@ -27532,22 +27537,22 @@
         <v>240</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G150" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="H150" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="H150" s="6" t="s">
-        <v>863</v>
-      </c>
       <c r="I150" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J150" s="10" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="K150" s="3">
         <v>3</v>
@@ -27688,22 +27693,22 @@
         <v>240</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F151" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="G151" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="G151" s="6" t="s">
+      <c r="H151" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="H151" s="6" t="s">
-        <v>864</v>
-      </c>
       <c r="I151" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J151" s="10" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="K151" s="3">
         <v>5</v>
@@ -27836,22 +27841,22 @@
         <v>369</v>
       </c>
       <c r="E152" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="G152" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="F152" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="G152" s="6" t="s">
+      <c r="H152" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="H152" s="6" t="s">
-        <v>928</v>
-      </c>
       <c r="I152" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J152" s="10" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="K152" s="3">
         <v>2</v>
@@ -27970,22 +27975,22 @@
         <v>369</v>
       </c>
       <c r="E153" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="G153" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="F153" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="G153" s="6" t="s">
+      <c r="H153" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="H153" s="6" t="s">
-        <v>929</v>
-      </c>
       <c r="I153" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J153" s="10" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="K153" s="3">
         <v>2</v>
@@ -28106,22 +28111,22 @@
         <v>369</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="J154" s="10" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="K154" s="3">
         <v>4</v>
@@ -28242,22 +28247,22 @@
         <v>369</v>
       </c>
       <c r="E155" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="I155" s="6" t="s">
         <v>920</v>
       </c>
-      <c r="F155" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>921</v>
-      </c>
-      <c r="H155" s="6" t="s">
-        <v>931</v>
-      </c>
-      <c r="I155" s="6" t="s">
-        <v>922</v>
-      </c>
       <c r="J155" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="K155" s="3">
         <v>4</v>
@@ -28386,22 +28391,22 @@
         <v>245</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J156" s="10" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="K156" s="3">
         <v>3</v>
@@ -28542,22 +28547,22 @@
         <v>244</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="J157" s="10" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="K157" s="3">
         <v>4</v>
@@ -28696,22 +28701,22 @@
         <v>244</v>
       </c>
       <c r="E158" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="G158" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="F158" s="6" t="s">
+      <c r="H158" s="6" t="s">
         <v>955</v>
       </c>
-      <c r="G158" s="6" t="s">
-        <v>956</v>
-      </c>
-      <c r="H158" s="6" t="s">
-        <v>957</v>
-      </c>
       <c r="I158" s="6" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="J158" s="10" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="K158" s="3">
         <v>4</v>
@@ -28853,25 +28858,25 @@
         <v>232</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J159" s="10" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="K159" s="3">
         <v>4</v>
@@ -28996,22 +29001,22 @@
         <v>246</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="I160" s="6" t="s">
         <v>487</v>
       </c>
       <c r="J160" s="10" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="K160" s="3">
         <v>4</v>
@@ -29149,25 +29154,25 @@
         <v>232</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J161" s="10" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="K161" s="3">
         <v>5</v>
@@ -29297,7 +29302,7 @@
       <c r="D162" s="4"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
@@ -29397,22 +29402,22 @@
         <v>226</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E163" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="H163" s="6" t="s">
         <v>950</v>
       </c>
-      <c r="F163" s="6" t="s">
-        <v>943</v>
-      </c>
-      <c r="G163" s="6" t="s">
+      <c r="I163" s="6" t="s">
         <v>951</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>952</v>
-      </c>
-      <c r="I163" s="6" t="s">
-        <v>953</v>
       </c>
       <c r="J163" s="10"/>
       <c r="K163" s="3"/>
@@ -29508,7 +29513,7 @@
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="6" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
@@ -29608,7 +29613,7 @@
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="6" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
@@ -29708,7 +29713,7 @@
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="6" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
@@ -29808,7 +29813,7 @@
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="6" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
@@ -29908,7 +29913,7 @@
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="6" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
@@ -30008,7 +30013,7 @@
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="6" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
@@ -30298,16 +30303,16 @@
     </row>
     <row r="172" spans="1:55" x14ac:dyDescent="0.15">
       <c r="E172" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="173" spans="1:55" x14ac:dyDescent="0.15">
@@ -30339,7 +30344,7 @@
     </row>
     <row r="179" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E179" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>187</v>
@@ -30363,7 +30368,7 @@
     </row>
     <row r="182" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E182" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>190</v>
@@ -30387,7 +30392,7 @@
     </row>
     <row r="185" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E185" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>193</v>
@@ -30403,7 +30408,7 @@
     </row>
     <row r="187" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E187" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>195</v>
@@ -30411,7 +30416,7 @@
     </row>
     <row r="188" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E188" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>196</v>
@@ -30435,7 +30440,7 @@
     </row>
     <row r="191" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E191" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>199</v>
@@ -30499,7 +30504,7 @@
     </row>
     <row r="199" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E199" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>207</v>
@@ -30515,7 +30520,7 @@
     </row>
     <row r="201" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E201" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>209</v>
@@ -30547,7 +30552,7 @@
     </row>
     <row r="205" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E205" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>213</v>
@@ -30619,7 +30624,7 @@
     </row>
     <row r="214" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E214" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>222</v>

--- a/src/main/others/FairyList.xlsx
+++ b/src/main/others/FairyList.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B11068-02C8-4A04-B3BB-33FDC28F98D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B1528D-5145-4190-A0B5-C585352E5A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7395" yWindow="1290" windowWidth="20325" windowHeight="14115" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
   </bookViews>
   <sheets>
     <sheet name="妖精リスト" sheetId="1" r:id="rId1"/>
@@ -5280,8 +5280,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BEE06BC-4D34-4495-81F3-FC4A209E4578}" name="テーブル1" displayName="テーブル1" ref="A1:BC171" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A1:BC171" xr:uid="{75B54AD4-ACAB-4F59-97B1-A32EA130B0BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BC161">
-    <sortCondition ref="A1:A161"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BC171">
+    <sortCondition ref="A1:A171"/>
   </sortState>
   <tableColumns count="55">
     <tableColumn id="1" xr3:uid="{6147C270-8C7A-4819-9E28-350D0331C4D0}" name="No" dataDxfId="54"/>
@@ -5636,10 +5636,10 @@
   <dimension ref="A1:BC214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="Y86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="T35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM94" sqref="AM94"/>
+      <selection pane="bottomRight" activeCell="BB49" sqref="BB49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5928,7 +5928,7 @@
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
       <c r="AM2" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN2" s="12"/>
       <c r="AO2" s="12"/>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="AZ2" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA2" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -5962,7 +5962,7 @@
       </c>
       <c r="BB2" s="11" t="str" cm="1">
         <f t="array" ref="BB2">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>AIR(0, { MIRAGE }, 1, 15, 1.00, m(0.0, 0.0, 2.0, 0.0, 1.0, 10.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 2.0, 1.0, 10.0, 3.0), c(0xFFBE80, 0xDEFFFF, 0xDEFFFF, 0xB0FFFF), "Airia", "空気精アイリャ"),</v>
+        <v>AIR(0, { MIRAGE }, 1, 15, 1.00, m(0.0, 0.0, 2.0, 0.0, 1.0, 10.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 5.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 2.0, 1.0, 10.0, 3.0), c(0xFFBE80, 0xDEFFFF, 0xDEFFFF, 0xB0FFFF), "Airia", "空気精アイリャ"),</v>
       </c>
       <c r="BC2" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -6075,7 +6075,9 @@
       </c>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
+      <c r="AM3" s="12">
+        <v>6</v>
+      </c>
       <c r="AN3" s="12">
         <v>1</v>
       </c>
@@ -6102,7 +6104,7 @@
       </c>
       <c r="AZ3" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="BA3" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -6110,7 +6112,7 @@
       </c>
       <c r="BB3" s="11" t="str" cm="1">
         <f t="array" ref="BB3">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>WATER(1, { MIRAGE }, 1, 50, 1.00, m(0.0, 0.0, 1.0, 4.0, 8.0, 10.0), e(1.0, 0.0, 0.0, 0.0, 0.0, 10.0, 0.0, 2.0, 0.0, 0.0, 0.0, 1.0, 7.0, 0.0, 2.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 2.0), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4), "Wateria", "水精ワテーリャ"),</v>
+        <v>WATER(1, { MIRAGE }, 1, 50, 1.00, m(0.0, 0.0, 1.0, 4.0, 8.0, 10.0), e(1.0, 0.0, 0.0, 0.0, 0.0, 10.0, 0.0, 2.0, 0.0, 0.0, 6.0, 1.0, 7.0, 0.0, 2.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 2.0), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4), "Wateria", "水精ワテーリャ"),</v>
       </c>
       <c r="BC3" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -6229,7 +6231,9 @@
       </c>
       <c r="AK4" s="12"/>
       <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
+      <c r="AM4" s="12">
+        <v>4</v>
+      </c>
       <c r="AN4" s="12">
         <v>4</v>
       </c>
@@ -6249,12 +6253,12 @@
       <c r="AV4" s="12"/>
       <c r="AW4" s="12"/>
       <c r="AX4" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY4" s="12"/>
       <c r="AZ4" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="BA4" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -6262,7 +6266,7 @@
       </c>
       <c r="BB4" s="11" t="str" cm="1">
         <f t="array" ref="BB4">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>FIRE(2, { MIRAGE }, 2, 20, 1.00, m(1.0, 17.0, 1.0, 0.0, 0.0, 10.0), e(7.0, 2.0, 1.0, 10.0, 15.0, 0.0, 0.0, 4.0, 0.0, 0.0, 0.0, 4.0, 8.0, 0.0, 0.0, 0.0, 10.0, 2.0, 0.0, 0.0, 0.0, 6.0, 0.0), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000), "Firia", "火精フィーリャ"),</v>
+        <v>FIRE(2, { MIRAGE }, 2, 20, 1.00, m(1.0, 17.0, 1.0, 0.0, 0.0, 10.0), e(7.0, 2.0, 1.0, 10.0, 15.0, 0.0, 0.0, 4.0, 0.0, 0.0, 4.0, 4.0, 8.0, 0.0, 0.0, 0.0, 10.0, 2.0, 0.0, 0.0, 0.0, 8.0, 0.0), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000), "Firia", "火精フィーリャ"),</v>
       </c>
       <c r="BC4" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -6379,7 +6383,9 @@
       <c r="AJ5" s="12"/>
       <c r="AK5" s="12"/>
       <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
+      <c r="AM5" s="12">
+        <v>1</v>
+      </c>
       <c r="AN5" s="12">
         <v>2</v>
       </c>
@@ -6398,13 +6404,11 @@
       <c r="AU5" s="12"/>
       <c r="AV5" s="12"/>
       <c r="AW5" s="12"/>
-      <c r="AX5" s="12">
-        <v>16</v>
-      </c>
+      <c r="AX5" s="12"/>
       <c r="AY5" s="12"/>
       <c r="AZ5" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="BA5" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -6412,7 +6416,7 @@
       </c>
       <c r="BB5" s="11" t="str" cm="1">
         <f t="array" ref="BB5">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>SUN(3, { STAR }, 5, 99, 1.00, m(10.0, 40.0, 40.0, 20.0, 20.0, 60.0), e(2.0, 0.0, 0.0, 21.0, 6.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 1.0, 5.0, 1.0, 0.0, 0.0, 0.0, 16.0, 0.0), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2), "Sunia", "太陽精スーニャ"),</v>
+        <v>SUN(3, { STAR }, 5, 99, 1.00, m(10.0, 40.0, 40.0, 20.0, 20.0, 60.0), e(2.0, 0.0, 0.0, 21.0, 6.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 2.0, 0.0, 0.0, 0.0, 1.0, 5.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2), "Sunia", "太陽精スーニャ"),</v>
       </c>
       <c r="BC5" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -7105,7 +7109,9 @@
       <c r="AL10" s="12">
         <v>1</v>
       </c>
-      <c r="AM10" s="12"/>
+      <c r="AM10" s="12">
+        <v>1</v>
+      </c>
       <c r="AN10" s="12"/>
       <c r="AO10" s="12">
         <v>4</v>
@@ -7134,7 +7140,7 @@
       </c>
       <c r="AZ10" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BA10" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -7142,7 +7148,7 @@
       </c>
       <c r="BB10" s="11" t="str" cm="1">
         <f t="array" ref="BB10">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>REDSTONE(8, { MIRAGE }, 3, 54, 1.00, m(1.0, 35.0, 11.0, 10.0, 0.0, 6.0), e(0.0, 0.0, 0.0, 7.0, 0.0, 0.0, 6.0, 0.0, 0.0, 1.0, 0.0, 0.0, 4.0, 0.0, 0.0, 4.0, 6.0, 3.0, 0.0, 0.0, 8.0, 2.0, 8.0), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000), "Redstonia", "赤石精レドストーニャ"),</v>
+        <v>REDSTONE(8, { MIRAGE }, 3, 54, 1.00, m(1.0, 35.0, 11.0, 10.0, 0.0, 6.0), e(0.0, 0.0, 0.0, 7.0, 0.0, 0.0, 6.0, 0.0, 0.0, 1.0, 1.0, 0.0, 4.0, 0.0, 0.0, 4.0, 6.0, 3.0, 0.0, 0.0, 8.0, 2.0, 8.0), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000), "Redstonia", "赤石精レドストーニャ"),</v>
       </c>
       <c r="BC10" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -7271,7 +7277,9 @@
       <c r="AL11" s="12">
         <v>12</v>
       </c>
-      <c r="AM11" s="12"/>
+      <c r="AM11" s="12">
+        <v>6</v>
+      </c>
       <c r="AN11" s="12">
         <v>4</v>
       </c>
@@ -7302,7 +7310,7 @@
       </c>
       <c r="AZ11" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="BA11" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -7310,7 +7318,7 @@
       </c>
       <c r="BB11" s="11" t="str" cm="1">
         <f t="array" ref="BB11">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>ENDERMAN(9, { MIRAGE }, 4, 48, 1.00, m(1.0, 12.0, 12.0, 16.0, 10.0, 1.0), e(11.0, 3.0, 5.0, 2.0, 0.0, 1.0, 2.0, 7.0, 1.0, 12.0, 0.0, 4.0, 2.0, 0.0, 14.0, 8.0, 4.0, 8.0, 0.0, 0.0, 0.0, 1.0, 16.0), c(0x000000, 0x161616, 0x161616, 0xEF84FA), "Endermania", "終界人精エンデルマーニャ"),</v>
+        <v>ENDERMAN(9, { MIRAGE }, 4, 48, 1.00, m(1.0, 12.0, 12.0, 16.0, 10.0, 1.0), e(11.0, 3.0, 5.0, 2.0, 0.0, 1.0, 2.0, 7.0, 1.0, 12.0, 6.0, 4.0, 2.0, 0.0, 14.0, 8.0, 4.0, 8.0, 0.0, 0.0, 0.0, 1.0, 16.0), c(0x000000, 0x161616, 0x161616, 0xEF84FA), "Endermania", "終界人精エンデルマーニャ"),</v>
       </c>
       <c r="BC11" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -7442,13 +7450,11 @@
         <v>5</v>
       </c>
       <c r="AW12" s="12"/>
-      <c r="AX12" s="12">
-        <v>16</v>
-      </c>
+      <c r="AX12" s="12"/>
       <c r="AY12" s="12"/>
       <c r="AZ12" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="BA12" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -7456,7 +7462,7 @@
       </c>
       <c r="BB12" s="11" t="str" cm="1">
         <f t="array" ref="BB12">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>MOON(10, { STAR }, 5, 95, 1.00, m(10.0, 25.0, 25.0, 20.0, 20.0, 90.0), e(0.0, 0.0, 0.0, 6.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 2.0, 0.0, 0.0, 5.0, 0.0, 16.0, 0.0), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272), "Moonia", "月精モーニャ"),</v>
+        <v>MOON(10, { STAR }, 5, 95, 1.00, m(10.0, 25.0, 25.0, 20.0, 20.0, 90.0), e(0.0, 0.0, 0.0, 6.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 2.0, 0.0, 0.0, 5.0, 0.0, 0.0, 0.0), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272), "Moonia", "月精モーニャ"),</v>
       </c>
       <c r="BC12" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -7567,7 +7573,9 @@
       <c r="AJ13" s="12"/>
       <c r="AK13" s="12"/>
       <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
+      <c r="AM13" s="12">
+        <v>1</v>
+      </c>
       <c r="AN13" s="12"/>
       <c r="AO13" s="12"/>
       <c r="AP13" s="12">
@@ -7588,7 +7596,7 @@
       </c>
       <c r="AZ13" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA13" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -7596,7 +7604,7 @@
       </c>
       <c r="BB13" s="11" t="str" cm="1">
         <f t="array" ref="BB13">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>SAND(11, { MIRAGE }, 1, 64, 1.00, m(0.1, 0.0, 0.0, 4.0, 1.0, 10.0), e(1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 7.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B), "Sandia", "砂精サンジャ"),</v>
+        <v>SAND(11, { MIRAGE }, 1, 64, 1.00, m(0.1, 0.0, 0.0, 4.0, 1.0, 10.0), e(1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 7.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B), "Sandia", "砂精サンジャ"),</v>
       </c>
       <c r="BC13" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -7857,7 +7865,9 @@
       </c>
       <c r="AK15" s="12"/>
       <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
+      <c r="AM15" s="12">
+        <v>11</v>
+      </c>
       <c r="AN15" s="12">
         <v>2</v>
       </c>
@@ -7890,7 +7900,7 @@
       </c>
       <c r="AZ15" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="BA15" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -7898,7 +7908,7 @@
       </c>
       <c r="BB15" s="11" t="str" cm="1">
         <f t="array" ref="BB15">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>SPIDER(13, { MIRAGE }, 2, 43, 1.00, m(0.0, 0.0, 0.0, 0.0, 10.0, 4.0), e(10.0, 0.0, 0.0, 2.0, 0.0, 2.0, 0.0, 4.0, 0.0, 0.0, 0.0, 2.0, 2.0, 1.0, 10.0, 4.0, 2.0, 3.0, 0.0, 0.0, 0.0, 3.0, 12.0), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E), "Spideria", "蜘蛛精スピデーリャ"),</v>
+        <v>SPIDER(13, { MIRAGE }, 2, 43, 1.00, m(0.0, 0.0, 0.0, 0.0, 10.0, 4.0), e(10.0, 0.0, 0.0, 2.0, 0.0, 2.0, 0.0, 4.0, 0.0, 0.0, 11.0, 2.0, 2.0, 1.0, 10.0, 4.0, 2.0, 3.0, 0.0, 0.0, 0.0, 3.0, 12.0), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E), "Spideria", "蜘蛛精スピデーリャ"),</v>
       </c>
       <c r="BC15" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -8016,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="AM16" s="12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AN16" s="12">
         <v>5</v>
@@ -8043,7 +8053,7 @@
       </c>
       <c r="AW16" s="12"/>
       <c r="AX16" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY16" s="12">
         <v>4</v>
@@ -8058,7 +8068,7 @@
       </c>
       <c r="BB16" s="11" t="str" cm="1">
         <f t="array" ref="BB16">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>SKELETON(14, { MIRAGE }, 1, 49, 1.00, m(0.0, 8.0, 10.0, 5.0, 0.0, 8.0), e(12.0, 1.0, 3.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 1.0, 12.0, 5.0, 2.0, 0.0, 2.0, 4.0, 3.0, 11.0, 0.0, 1.0, 0.0, 1.0, 4.0), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949), "Skeletonia", "骸骨精スケレトーニャ"),</v>
+        <v>SKELETON(14, { MIRAGE }, 1, 49, 1.00, m(0.0, 8.0, 10.0, 5.0, 0.0, 8.0), e(12.0, 1.0, 3.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 1.0, 8.0, 5.0, 2.0, 0.0, 2.0, 4.0, 3.0, 11.0, 0.0, 1.0, 0.0, 5.0, 4.0), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949), "Skeletonia", "骸骨精スケレトーニャ"),</v>
       </c>
       <c r="BC16" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -8175,7 +8185,9 @@
         <v>2</v>
       </c>
       <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
+      <c r="AM17" s="12">
+        <v>9</v>
+      </c>
       <c r="AN17" s="12">
         <v>2</v>
       </c>
@@ -8208,7 +8220,7 @@
       </c>
       <c r="AZ17" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="BA17" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -8216,7 +8228,7 @@
       </c>
       <c r="BB17" s="11" t="str" cm="1">
         <f t="array" ref="BB17">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>ZOMBIE(15, { MIRAGE }, 1, 55, 1.00, m(0.0, 9.0, 10.0, 0.0, 2.0, 9.0), e(13.0, 0.0, 1.0, 0.0, 0.0, 4.0, 0.0, 3.0, 2.0, 0.0, 0.0, 2.0, 3.0, 2.0, 4.0, 3.0, 3.0, 9.0, 0.0, 0.0, 0.0, 1.0, 2.0), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219), "Zombia", "硬屍精ゾンビャ"),</v>
+        <v>ZOMBIE(15, { MIRAGE }, 1, 55, 1.00, m(0.0, 9.0, 10.0, 0.0, 2.0, 9.0), e(13.0, 0.0, 1.0, 0.0, 0.0, 4.0, 0.0, 3.0, 2.0, 0.0, 9.0, 2.0, 3.0, 2.0, 4.0, 3.0, 3.0, 9.0, 0.0, 0.0, 0.0, 1.0, 2.0), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219), "Zombia", "硬屍精ゾンビャ"),</v>
       </c>
       <c r="BC17" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -8330,7 +8342,7 @@
       <c r="AK18" s="12"/>
       <c r="AL18" s="12"/>
       <c r="AM18" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN18" s="12">
         <v>17</v>
@@ -8357,14 +8369,14 @@
         <v>2</v>
       </c>
       <c r="AX18" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY18" s="12">
         <v>4</v>
       </c>
       <c r="AZ18" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="BA18" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -8372,7 +8384,7 @@
       </c>
       <c r="BB18" s="11" t="str" cm="1">
         <f t="array" ref="BB18">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>CREEPER(16, { MIRAGE }, 2, 35, 1.00, m(0.0, 0.0, 10.0, 0.0, 12.0, 4.0), e(10.0, 0.0, 3.0, 0.0, 3.0, 2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 17.0, 6.0, 0.0, 5.0, 3.0, 7.0, 2.0, 0.0, 0.0, 2.0, 1.0, 4.0), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x000000), "Creeperia", "匠精ツレペーリャ"),</v>
+        <v>CREEPER(16, { MIRAGE }, 2, 35, 1.00, m(0.0, 0.0, 10.0, 0.0, 12.0, 4.0), e(10.0, 0.0, 3.0, 0.0, 3.0, 2.0, 0.0, 0.0, 0.0, 0.0, 5.0, 17.0, 6.0, 0.0, 5.0, 3.0, 7.0, 2.0, 0.0, 0.0, 2.0, 2.0, 4.0), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x000000), "Creeperia", "匠精ツレペーリャ"),</v>
       </c>
       <c r="BC18" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -8773,9 +8785,7 @@
       </c>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
-      <c r="AM21" s="12">
-        <v>1</v>
-      </c>
+      <c r="AM21" s="12"/>
       <c r="AN21" s="12"/>
       <c r="AO21" s="12"/>
       <c r="AP21" s="12"/>
@@ -8798,7 +8808,7 @@
       <c r="AY21" s="12"/>
       <c r="AZ21" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BA21" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -8806,7 +8816,7 @@
       </c>
       <c r="BB21" s="11" t="str" cm="1">
         <f t="array" ref="BB21">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>TORCH(19, { MIRAGE }, 1, 19, 1.00, m(0.1, 1.0, 1.0, 10.0, 4.0, 0.0), e(1.0, 1.0, 2.0, 12.0, 8.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 4.0, 2.0, 0.0, 0.0, 0.0, 1.0, 0.0), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5), "Torchia", "松明精トルキャ"),</v>
+        <v>TORCH(19, { MIRAGE }, 1, 19, 1.00, m(0.1, 1.0, 1.0, 10.0, 4.0, 0.0), e(1.0, 1.0, 2.0, 12.0, 8.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 4.0, 2.0, 0.0, 0.0, 0.0, 1.0, 0.0), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5), "Torchia", "松明精トルキャ"),</v>
       </c>
       <c r="BC21" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -8923,7 +8933,9 @@
       </c>
       <c r="AK22" s="12"/>
       <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
+      <c r="AM22" s="12">
+        <v>3</v>
+      </c>
       <c r="AN22" s="12">
         <v>3</v>
       </c>
@@ -8946,7 +8958,7 @@
       <c r="AY22" s="12"/>
       <c r="AZ22" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BA22" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -8954,7 +8966,7 @@
       </c>
       <c r="BB22" s="11" t="str" cm="1">
         <f t="array" ref="BB22">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>LAVA(20, { MIRAGE }, 2, 58, 1.00, m(0.0, 18.0, 0.0, 4.0, 0.0, 10.0), e(8.0, 1.0, 1.0, 13.0, 18.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 3.0, 3.0, 0.0, 0.0, 0.0, 7.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500), "Lavia", "溶岩精ラーヴャ"),</v>
+        <v>LAVA(20, { MIRAGE }, 2, 58, 1.00, m(0.0, 18.0, 0.0, 4.0, 0.0, 10.0), e(8.0, 1.0, 1.0, 13.0, 18.0, 0.0, 0.0, 3.0, 0.0, 0.0, 3.0, 3.0, 3.0, 0.0, 0.0, 0.0, 7.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500), "Lavia", "溶岩精ラーヴャ"),</v>
       </c>
       <c r="BC22" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -9086,13 +9098,11 @@
       <c r="AU23" s="12"/>
       <c r="AV23" s="12"/>
       <c r="AW23" s="12"/>
-      <c r="AX23" s="12">
-        <v>16</v>
-      </c>
+      <c r="AX23" s="12"/>
       <c r="AY23" s="12"/>
       <c r="AZ23" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="BA23" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -9100,7 +9110,7 @@
       </c>
       <c r="BB23" s="11" t="str" cm="1">
         <f t="array" ref="BB23">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>STAR(21, { MIRAGE }, 4, 98, 1.00, m(10.0, 30.0, 50.0, 10.0, 30.0, 90.0), e(0.0, 0.0, 0.0, 4.0, 2.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 16.0, 0.0), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919), "Staria", "星精スターリャ"),</v>
+        <v>STAR(21, { MIRAGE }, 4, 98, 1.00, m(10.0, 30.0, 50.0, 10.0, 30.0, 90.0), e(0.0, 0.0, 0.0, 4.0, 2.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919), "Staria", "星精スターリャ"),</v>
       </c>
       <c r="BC23" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -9207,7 +9217,9 @@
       <c r="AJ24" s="12"/>
       <c r="AK24" s="12"/>
       <c r="AL24" s="12"/>
-      <c r="AM24" s="12"/>
+      <c r="AM24" s="12">
+        <v>1</v>
+      </c>
       <c r="AN24" s="12">
         <v>5</v>
       </c>
@@ -9232,7 +9244,7 @@
       </c>
       <c r="AZ24" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA24" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -9240,7 +9252,7 @@
       </c>
       <c r="BB24" s="11" t="str" cm="1">
         <f t="array" ref="BB24">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>GRAVEL(22, { MIRAGE }, 2, 77, 1.00, m(0.0, 0.0, 0.0, 12.0, 0.0, 10.0), e(1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 5.0, 0.0, 3.0, 0.0, 0.0, 0.0, 2.0, 0.0, 1.0, 0.0, 0.0, 1.0), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C), "Gravelia", "砂利精グラヴェーリャ"),</v>
+        <v>GRAVEL(22, { MIRAGE }, 2, 77, 1.00, m(0.0, 0.0, 0.0, 12.0, 0.0, 10.0), e(1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 1.0, 5.0, 0.0, 3.0, 0.0, 0.0, 0.0, 2.0, 0.0, 1.0, 0.0, 0.0, 1.0), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C), "Gravelia", "砂利精グラヴェーリャ"),</v>
       </c>
       <c r="BC24" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -9642,7 +9654,7 @@
         <v>2</v>
       </c>
       <c r="AM27" s="12">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AN27" s="12">
         <v>9</v>
@@ -9667,14 +9679,14 @@
       <c r="AV27" s="12"/>
       <c r="AW27" s="12"/>
       <c r="AX27" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY27" s="12">
         <v>11</v>
       </c>
       <c r="AZ27" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="BA27" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -9682,7 +9694,7 @@
       </c>
       <c r="BB27" s="11" t="str" cm="1">
         <f t="array" ref="BB27">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>ENDER_DRAGON(25, { MIRAGE }, 5, 61, 1.00, m(3.0, 0.0, 51.0, 0.0, 10.0, 0.0), e(20.0, 0.0, 0.0, 2.0, 0.0, 2.0, 0.0, 4.0, 0.0, 2.0, 7.0, 9.0, 1.0, 0.0, 15.0, 5.0, 6.0, 4.0, 0.0, 0.0, 0.0, 14.0, 11.0), c(0x000000, 0x181818, 0x181818, 0xA500E2), "Endere Dragonia", "終界龍精エンデレドラゴーニャ"),</v>
+        <v>ENDER_DRAGON(25, { MIRAGE }, 5, 61, 1.00, m(3.0, 0.0, 51.0, 0.0, 10.0, 0.0), e(20.0, 0.0, 0.0, 2.0, 0.0, 2.0, 0.0, 4.0, 0.0, 2.0, 12.0, 9.0, 1.0, 0.0, 15.0, 5.0, 6.0, 4.0, 0.0, 0.0, 0.0, 16.0, 11.0), c(0x000000, 0x181818, 0x181818, 0xA500E2), "Endere Dragonia", "終界龍精エンデレドラゴーニャ"),</v>
       </c>
       <c r="BC27" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -9799,7 +9811,9 @@
       </c>
       <c r="AK28" s="12"/>
       <c r="AL28" s="12"/>
-      <c r="AM28" s="12"/>
+      <c r="AM28" s="12">
+        <v>10</v>
+      </c>
       <c r="AN28" s="12">
         <v>7</v>
       </c>
@@ -9832,7 +9846,7 @@
       </c>
       <c r="AZ28" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="BA28" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -9840,7 +9854,7 @@
       </c>
       <c r="BB28" s="11" t="str" cm="1">
         <f t="array" ref="BB28">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>WITHER_SKELETON(26, { SKELETON }, 4, 69, 1.00, m(0.0, 11.0, 10.0, 4.0, 1.0, 1.0), e(17.0, 1.0, 3.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 7.0, 2.0, 4.0, 2.0, 5.0, 4.0, 13.0, 0.0, 0.0, 0.0, 1.0, 5.0), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606), "Withere Dkeletonia", "枯骸骨精ウィテーレスケレトーニャ"),</v>
+        <v>WITHER_SKELETON(26, { SKELETON }, 4, 69, 1.00, m(0.0, 11.0, 10.0, 4.0, 1.0, 1.0), e(17.0, 1.0, 3.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 10.0, 7.0, 2.0, 4.0, 2.0, 5.0, 4.0, 13.0, 0.0, 0.0, 0.0, 1.0, 5.0), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606), "Withere Dkeletonia", "枯骸骨精ウィテーレスケレトーニャ"),</v>
       </c>
       <c r="BC28" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -9960,7 +9974,7 @@
       <c r="AK29" s="12"/>
       <c r="AL29" s="12"/>
       <c r="AM29" s="12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AN29" s="12">
         <v>15</v>
@@ -9987,14 +10001,14 @@
         <v>3</v>
       </c>
       <c r="AX29" s="12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY29" s="12">
         <v>6</v>
       </c>
       <c r="AZ29" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BA29" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -10002,7 +10016,7 @@
       </c>
       <c r="BB29" s="11" t="str" cm="1">
         <f t="array" ref="BB29">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>WITHER(27, { MIRAGE }, 5, 52, 1.00, m(0.0, 8.0, 10.0, 3.0, 1.0, 0.0), e(25.0, 0.0, 3.0, 2.0, 1.0, 1.0, 0.0, 2.0, 0.0, 0.0, 14.0, 15.0, 2.0, 0.0, 1.0, 4.0, 7.0, 9.0, 0.0, 0.0, 3.0, 13.0, 6.0), c(0x181818, 0x3C3C3C, 0x141414, 0x557272), "Witheria", "枯精ウィテーリャ"),</v>
+        <v>WITHER(27, { MIRAGE }, 5, 52, 1.00, m(0.0, 8.0, 10.0, 3.0, 1.0, 0.0), e(25.0, 0.0, 3.0, 2.0, 1.0, 1.0, 0.0, 2.0, 0.0, 0.0, 11.0, 15.0, 2.0, 0.0, 1.0, 4.0, 7.0, 9.0, 0.0, 0.0, 3.0, 15.0, 6.0), c(0x181818, 0x3C3C3C, 0x141414, 0x557272), "Witheria", "枯精ウィテーリャ"),</v>
       </c>
       <c r="BC29" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -10124,7 +10138,7 @@
         <v>4</v>
       </c>
       <c r="AM30" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN30" s="12">
         <v>11</v>
@@ -10147,12 +10161,12 @@
         <v>18</v>
       </c>
       <c r="AX30" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" s="12"/>
       <c r="AZ30" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BA30" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -10160,7 +10174,7 @@
       </c>
       <c r="BB30" s="11" t="str" cm="1">
         <f t="array" ref="BB30">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>THUNDER(28, { MIRAGE }, 3, 18, 1.00, m(2.0, 9.0, 3.0, 2.0, 0.0, 10.0), e(9.0, 0.0, 1.0, 8.0, 11.0, 0.0, 0.0, 9.0, 0.0, 4.0, 5.0, 11.0, 11.0, 0.0, 0.0, 0.0, 12.0, 1.0, 0.0, 0.0, 18.0, 5.0, 0.0), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0xFFEB00), "Thunderia", "雷精ツンデーリャ"),</v>
+        <v>THUNDER(28, { MIRAGE }, 3, 18, 1.00, m(2.0, 9.0, 3.0, 2.0, 0.0, 10.0), e(9.0, 0.0, 1.0, 8.0, 11.0, 0.0, 0.0, 9.0, 0.0, 4.0, 7.0, 11.0, 11.0, 0.0, 0.0, 0.0, 12.0, 1.0, 0.0, 0.0, 18.0, 6.0, 0.0), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0xFFEB00), "Thunderia", "雷精ツンデーリャ"),</v>
       </c>
       <c r="BC30" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -10272,7 +10286,7 @@
       <c r="AK31" s="12"/>
       <c r="AL31" s="12"/>
       <c r="AM31" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN31" s="12"/>
       <c r="AO31" s="12">
@@ -10295,14 +10309,14 @@
       <c r="AV31" s="12"/>
       <c r="AW31" s="12"/>
       <c r="AX31" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY31" s="12">
         <v>8</v>
       </c>
       <c r="AZ31" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="BA31" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -10310,7 +10324,7 @@
       </c>
       <c r="BB31" s="11" t="str" cm="1">
         <f t="array" ref="BB31">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>CHICKEN(29, { MIRAGE }, 1, 39, 1.00, m(0.0, 0.0, 1.0, 0.0, 10.0, 7.0), e(1.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 9.0, 0.0, 0.0, 2.0, 0.0, 1.0, 0.0, 10.0, 3.0, 2.0, 2.0, 0.0, 0.0, 0.0, 7.0, 8.0), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117), "Chickenia", "鶏精キッケーニャ"),</v>
+        <v>CHICKEN(29, { MIRAGE }, 1, 39, 1.00, m(0.0, 0.0, 1.0, 0.0, 10.0, 7.0), e(1.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 9.0, 0.0, 0.0, 5.0, 0.0, 1.0, 0.0, 10.0, 3.0, 2.0, 2.0, 0.0, 0.0, 0.0, 8.0, 8.0), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117), "Chickenia", "鶏精キッケーニャ"),</v>
       </c>
       <c r="BC31" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -10837,7 +10851,9 @@
       <c r="AJ35" s="12"/>
       <c r="AK35" s="12"/>
       <c r="AL35" s="12"/>
-      <c r="AM35" s="12"/>
+      <c r="AM35" s="12">
+        <v>3</v>
+      </c>
       <c r="AN35" s="12"/>
       <c r="AO35" s="12"/>
       <c r="AP35" s="12"/>
@@ -10856,7 +10872,7 @@
       <c r="AY35" s="12"/>
       <c r="AZ35" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA35" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -10864,7 +10880,7 @@
       </c>
       <c r="BB35" s="11" t="str" cm="1">
         <f t="array" ref="BB35">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>DAYTIME(33, { TIME }, 1, 88, 1.00, m(1.0, 0.0, 10.0, 3.0, 7.0, 24.0), e(0.0, 0.0, 0.0, 11.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0), c(0xFFE260, 0xAACAEF, 0x84B5EF, 0xFFE7B2), "Daytimia", "昼精ダイティーミャ"),</v>
+        <v>DAYTIME(33, { TIME }, 1, 88, 1.00, m(1.0, 0.0, 10.0, 3.0, 7.0, 24.0), e(0.0, 0.0, 0.0, 11.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0), c(0xFFE260, 0xAACAEF, 0x84B5EF, 0xFFE7B2), "Daytimia", "昼精ダイティーミャ"),</v>
       </c>
       <c r="BC35" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -10971,7 +10987,9 @@
       <c r="AJ36" s="12"/>
       <c r="AK36" s="12"/>
       <c r="AL36" s="12"/>
-      <c r="AM36" s="12"/>
+      <c r="AM36" s="12">
+        <v>1</v>
+      </c>
       <c r="AN36" s="12"/>
       <c r="AO36" s="12"/>
       <c r="AP36" s="12"/>
@@ -10998,7 +11016,7 @@
       <c r="AY36" s="12"/>
       <c r="AZ36" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA36" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -11006,7 +11024,7 @@
       </c>
       <c r="BB36" s="11" t="str" cm="1">
         <f t="array" ref="BB36">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>NIGHT(34, { TIME }, 1, 83, 1.00, m(0.0, 7.0, 10.0, 0.0, 7.0, 24.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 3.0, 0.0, 4.0, 1.0, 3.0, 0.0), c(0xFFE260, 0x2C2C2E, 0x0E0E10, 0x2D4272), "Nightia", "夜精ニグチャ"),</v>
+        <v>NIGHT(34, { TIME }, 1, 83, 1.00, m(0.0, 7.0, 10.0, 0.0, 7.0, 24.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 3.0, 0.0, 4.0, 1.0, 3.0, 0.0), c(0xFFE260, 0x2C2C2E, 0x0E0E10, 0x2D4272), "Nightia", "夜精ニグチャ"),</v>
       </c>
       <c r="BC36" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -11121,7 +11139,9 @@
       <c r="AJ37" s="12"/>
       <c r="AK37" s="12"/>
       <c r="AL37" s="12"/>
-      <c r="AM37" s="12"/>
+      <c r="AM37" s="12">
+        <v>2</v>
+      </c>
       <c r="AN37" s="12"/>
       <c r="AO37" s="12"/>
       <c r="AP37" s="12"/>
@@ -11142,7 +11162,7 @@
       <c r="AY37" s="12"/>
       <c r="AZ37" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA37" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -11150,7 +11170,7 @@
       </c>
       <c r="BB37" s="11" t="str" cm="1">
         <f t="array" ref="BB37">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>MORNING(35, { TIME }, 2, 85, 1.00, m(1.0, 5.0, 10.0, 1.0, 7.0, 18.0), e(0.0, 0.0, 0.0, 9.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 3.0, 0.0, 3.0, 0.0), c(0xFFE260, 0x91C4D9, 0x4570A6, 0xFF7017), "Morningia", "朝精モルニンギャ"),</v>
+        <v>MORNING(35, { TIME }, 2, 85, 1.00, m(1.0, 5.0, 10.0, 1.0, 7.0, 18.0), e(0.0, 0.0, 0.0, 9.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 3.0, 0.0, 3.0, 0.0), c(0xFFE260, 0x91C4D9, 0x4570A6, 0xFF7017), "Morningia", "朝精モルニンギャ"),</v>
       </c>
       <c r="BC37" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -11405,7 +11425,9 @@
       </c>
       <c r="AK39" s="12"/>
       <c r="AL39" s="12"/>
-      <c r="AM39" s="12"/>
+      <c r="AM39" s="12">
+        <v>3</v>
+      </c>
       <c r="AN39" s="12"/>
       <c r="AO39" s="12"/>
       <c r="AP39" s="12"/>
@@ -11432,7 +11454,7 @@
       <c r="AY39" s="12"/>
       <c r="AZ39" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BA39" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -11440,7 +11462,7 @@
       </c>
       <c r="BB39" s="11" t="str" cm="1">
         <f t="array" ref="BB39">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>RAIN(37, { MIRAGE }, 2, 25, 1.00, m(0.0, 2.0, 10.0, 0.0, 19.0, 17.0), e(1.0, 0.0, 0.0, 0.0, 0.0, 13.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 1.0, 4.0, 0.0, 1.0, 4.0, 4.0, 0.0), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0x2D40F4), "Rainia", "雨精ライニャ"),</v>
+        <v>RAIN(37, { MIRAGE }, 2, 25, 1.00, m(0.0, 2.0, 10.0, 0.0, 19.0, 17.0), e(1.0, 0.0, 0.0, 0.0, 0.0, 13.0, 0.0, 3.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 3.0, 0.0, 1.0, 4.0, 0.0, 1.0, 4.0, 4.0, 0.0), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0x2D40F4), "Rainia", "雨精ライニャ"),</v>
       </c>
       <c r="BC39" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -11549,7 +11571,9 @@
       <c r="AJ40" s="12"/>
       <c r="AK40" s="12"/>
       <c r="AL40" s="12"/>
-      <c r="AM40" s="12"/>
+      <c r="AM40" s="12">
+        <v>1</v>
+      </c>
       <c r="AN40" s="12"/>
       <c r="AO40" s="12"/>
       <c r="AP40" s="12"/>
@@ -11572,7 +11596,7 @@
       </c>
       <c r="AZ40" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA40" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -11580,7 +11604,7 @@
       </c>
       <c r="BB40" s="11" t="str" cm="1">
         <f t="array" ref="BB40">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>PLAINS(38, { MIRAGE }, 1, 79, 1.00, m(0.0, 0.0, 0.0, 3.0, 18.0, 10.0), e(0.0, 0.0, 1.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 1.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0), c(0x80FF00, 0xD4FF82, 0x86C91C, 0xBB5400), "Plainsia", "平原精プラインシャ"),</v>
+        <v>PLAINS(38, { MIRAGE }, 1, 79, 1.00, m(0.0, 0.0, 0.0, 3.0, 18.0, 10.0), e(0.0, 0.0, 1.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 4.0, 1.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0), c(0x80FF00, 0xD4FF82, 0x86C91C, 0xBB5400), "Plainsia", "平原精プラインシャ"),</v>
       </c>
       <c r="BC40" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -12273,7 +12297,9 @@
       <c r="AJ45" s="12"/>
       <c r="AK45" s="12"/>
       <c r="AL45" s="12"/>
-      <c r="AM45" s="12"/>
+      <c r="AM45" s="12">
+        <v>3</v>
+      </c>
       <c r="AN45" s="12">
         <v>6</v>
       </c>
@@ -12296,7 +12322,7 @@
       <c r="AY45" s="12"/>
       <c r="AZ45" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="BA45" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -12304,7 +12330,7 @@
       </c>
       <c r="BB45" s="11" t="str" cm="1">
         <f t="array" ref="BB45">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>AXE(43, { MIRAGE }, 2, 83, 1.00, m(0.0, 7.0, 0.0, 10.0, 2.0, 5.0), e(12.0, 2.0, 12.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 6.0, 0.0, 10.0, 0.0, 2.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFFFFF, 0xCD9A6A, 0x529B3A, 0xC9D0C6), "Axia", "斧精アーシャ"),</v>
+        <v>AXE(43, { MIRAGE }, 2, 83, 1.00, m(0.0, 7.0, 0.0, 10.0, 2.0, 5.0), e(12.0, 2.0, 12.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 6.0, 0.0, 10.0, 0.0, 2.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFFFFF, 0xCD9A6A, 0x529B3A, 0xC9D0C6), "Axia", "斧精アーシャ"),</v>
       </c>
       <c r="BC45" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -12413,7 +12439,9 @@
         <v>15</v>
       </c>
       <c r="AL46" s="12"/>
-      <c r="AM46" s="12"/>
+      <c r="AM46" s="12">
+        <v>1</v>
+      </c>
       <c r="AN46" s="12"/>
       <c r="AO46" s="12"/>
       <c r="AP46" s="12"/>
@@ -12432,7 +12460,7 @@
       <c r="AY46" s="12"/>
       <c r="AZ46" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA46" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -12440,7 +12468,7 @@
       </c>
       <c r="BB46" s="11" t="str" cm="1">
         <f t="array" ref="BB46">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>CHEST(44, { MIRAGE }, 1, 31, 1.00, m(0.0, 0.0, 0.0, 10.0, 0.0, 7.0), e(0.0, 1.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 15.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFFFFF, 0xFFA431, 0xFFA900, 0xFFC2A5), "Chestia", "箱精ケスチャ"),</v>
+        <v>CHEST(44, { MIRAGE }, 1, 31, 1.00, m(0.0, 0.0, 0.0, 10.0, 0.0, 7.0), e(0.0, 1.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 15.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFFFFF, 0xFFA431, 0xFFA900, 0xFFC2A5), "Chestia", "箱精ケスチャ"),</v>
       </c>
       <c r="BC46" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -12698,7 +12726,7 @@
       </c>
       <c r="AL48" s="12"/>
       <c r="AM48" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN48" s="12"/>
       <c r="AO48" s="12">
@@ -12724,7 +12752,7 @@
       </c>
       <c r="AZ48" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BA48" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -12732,7 +12760,7 @@
       </c>
       <c r="BB48" s="11" t="str" cm="1">
         <f t="array" ref="BB48">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>POTION(46, { MIRAGE }, 3, 29, 1.00, m(1.0, 2.0, 18.0, 10.0, 3.0, 0.0), e(3.0, 2.0, 0.0, 1.0, 1.0, 6.0, 0.0, 0.0, 2.0, 0.0, 2.0, 0.0, 10.0, 0.0, 8.0, 8.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0), c(0xFFFFFF, 0x52CAFF, 0x00AEFF, 0xFFFFFF), "Potionia", "薬精ポティオーニャ"),</v>
+        <v>POTION(46, { MIRAGE }, 3, 29, 1.00, m(1.0, 2.0, 18.0, 10.0, 3.0, 0.0), e(3.0, 2.0, 0.0, 1.0, 1.0, 6.0, 0.0, 0.0, 2.0, 0.0, 1.0, 0.0, 10.0, 0.0, 8.0, 8.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0), c(0xFFFFFF, 0x52CAFF, 0x00AEFF, 0xFFFFFF), "Potionia", "薬精ポティオーニャ"),</v>
       </c>
       <c r="BC48" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -12847,7 +12875,9 @@
       <c r="AJ49" s="12"/>
       <c r="AK49" s="12"/>
       <c r="AL49" s="12"/>
-      <c r="AM49" s="12"/>
+      <c r="AM49" s="12">
+        <v>4</v>
+      </c>
       <c r="AN49" s="12">
         <v>4</v>
       </c>
@@ -12870,7 +12900,7 @@
       <c r="AY49" s="12"/>
       <c r="AZ49" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="BA49" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -12878,7 +12908,7 @@
       </c>
       <c r="BB49" s="11" t="str" cm="1">
         <f t="array" ref="BB49">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>SWORD(47, { MIRAGE }, 2, 62, 1.00, m(0.1, 8.0, 1.0, 10.0, 0.0, 3.0), e(13.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 12.0, 0.0, 2.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFFFFF, 0xFFC48E, 0xFF0300, 0xFFFFFF), "Swordia", "剣精スウォルジャ"),</v>
+        <v>SWORD(47, { MIRAGE }, 2, 62, 1.00, m(0.1, 8.0, 1.0, 10.0, 0.0, 3.0), e(13.0, 1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 4.0, 0.0, 12.0, 0.0, 2.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFFFFF, 0xFFC48E, 0xFF0300, 0xFFFFFF), "Swordia", "剣精スウォルジャ"),</v>
       </c>
       <c r="BC49" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -12990,7 +13020,7 @@
         <v>3</v>
       </c>
       <c r="AM50" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AN50" s="12"/>
       <c r="AO50" s="12"/>
@@ -13008,13 +13038,15 @@
       <c r="AW50" s="12">
         <v>2</v>
       </c>
-      <c r="AX50" s="12"/>
+      <c r="AX50" s="12">
+        <v>6</v>
+      </c>
       <c r="AY50" s="12">
         <v>7</v>
       </c>
       <c r="AZ50" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BA50" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -13022,7 +13054,7 @@
       </c>
       <c r="BB50" s="11" t="str" cm="1">
         <f t="array" ref="BB50">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>DISPENSER(48, { MIRAGE }, 2, 86, 1.00, m(0.0, 10.0, 0.0, 3.0, 0.0, 0.0), e(0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 10.0, 3.0, 10.0, 0.0, 0.0, 0.0, 0.0, 2.0, 3.0, 0.0, 0.0, 0.0, 2.0, 0.0, 7.0), c(0xFFFFFF, 0xD7D7D7, 0x727272, 0x95623C), "Dispenseria", "発射機精ディスペンセーリャ"),</v>
+        <v>DISPENSER(48, { MIRAGE }, 2, 86, 1.00, m(0.0, 10.0, 0.0, 3.0, 0.0, 0.0), e(0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 10.0, 3.0, 8.0, 0.0, 0.0, 0.0, 0.0, 2.0, 3.0, 0.0, 0.0, 0.0, 2.0, 6.0, 7.0), c(0xFFFFFF, 0xD7D7D7, 0x727272, 0x95623C), "Dispenseria", "発射機精ディスペンセーリャ"),</v>
       </c>
       <c r="BC50" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -13127,7 +13159,9 @@
       <c r="AJ51" s="12"/>
       <c r="AK51" s="12"/>
       <c r="AL51" s="12"/>
-      <c r="AM51" s="12"/>
+      <c r="AM51" s="12">
+        <v>2</v>
+      </c>
       <c r="AN51" s="12"/>
       <c r="AO51" s="12">
         <v>3</v>
@@ -13152,7 +13186,7 @@
       </c>
       <c r="AZ51" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BA51" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -13160,7 +13194,7 @@
       </c>
       <c r="BB51" s="11" t="str" cm="1">
         <f t="array" ref="BB51">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>OCEAN(49, { MIRAGE }, 1, 73, 1.00, m(0.0, 0.0, 0.0, 0.0, 22.0, 10.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 22.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 4.0, 0.0, 2.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0), c(0x80FF00, 0x86B5FF, 0x1D7EFF, 0x004DA5), "Oceania", "海精オツェアーニャ"),</v>
+        <v>OCEAN(49, { MIRAGE }, 1, 73, 1.00, m(0.0, 0.0, 0.0, 0.0, 22.0, 10.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 22.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 3.0, 0.0, 4.0, 0.0, 2.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0), c(0x80FF00, 0x86B5FF, 0x1D7EFF, 0x004DA5), "Oceania", "海精オツェアーニャ"),</v>
       </c>
       <c r="BC51" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -13265,7 +13299,9 @@
       <c r="AJ52" s="12"/>
       <c r="AK52" s="12"/>
       <c r="AL52" s="12"/>
-      <c r="AM52" s="12"/>
+      <c r="AM52" s="12">
+        <v>4</v>
+      </c>
       <c r="AN52" s="12"/>
       <c r="AO52" s="12">
         <v>1</v>
@@ -13294,7 +13330,7 @@
       </c>
       <c r="AZ52" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BA52" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -13302,7 +13338,7 @@
       </c>
       <c r="BB52" s="11" t="str" cm="1">
         <f t="array" ref="BB52">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>FISH(50, { MIRAGE }, 2, 29, 1.00, m(0.0, 0.0, 0.0, 0.0, 10.0, 3.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 6.0, 1.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 5.0), c(0x6B9F93, 0x5A867C, 0x43655D, 0xADBEDB), "Fishia", "魚精フィーシャ"),</v>
+        <v>FISH(50, { MIRAGE }, 2, 29, 1.00, m(0.0, 0.0, 0.0, 0.0, 10.0, 3.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 1.0, 0.0, 6.0, 1.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 5.0), c(0x6B9F93, 0x5A867C, 0x43655D, 0xADBEDB), "Fishia", "魚精フィーシャ"),</v>
       </c>
       <c r="BC52" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -13407,7 +13443,9 @@
       <c r="AJ53" s="12"/>
       <c r="AK53" s="12"/>
       <c r="AL53" s="12"/>
-      <c r="AM53" s="12"/>
+      <c r="AM53" s="12">
+        <v>4</v>
+      </c>
       <c r="AN53" s="12"/>
       <c r="AO53" s="12">
         <v>1</v>
@@ -13436,7 +13474,7 @@
       </c>
       <c r="AZ53" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BA53" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -13444,7 +13482,7 @@
       </c>
       <c r="BB53" s="11" t="str" cm="1">
         <f t="array" ref="BB53">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>COD(51, { FISH }, 2, 27, 1.00, m(0.0, 0.0, 0.0, 0.0, 10.0, 3.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 7.0, 1.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 5.0), c(0xC6A271, 0xD6C5AD, 0x986D4E, 0xBEA989), "Codia", "鱈精ツォージャ"),</v>
+        <v>COD(51, { FISH }, 2, 27, 1.00, m(0.0, 0.0, 0.0, 0.0, 10.0, 3.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 1.0, 0.0, 7.0, 1.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 5.0), c(0xC6A271, 0xD6C5AD, 0x986D4E, 0xBEA989), "Codia", "鱈精ツォージャ"),</v>
       </c>
       <c r="BC53" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -13551,7 +13589,9 @@
       <c r="AJ54" s="12"/>
       <c r="AK54" s="12"/>
       <c r="AL54" s="12"/>
-      <c r="AM54" s="12"/>
+      <c r="AM54" s="12">
+        <v>4</v>
+      </c>
       <c r="AN54" s="12"/>
       <c r="AO54" s="12">
         <v>1</v>
@@ -13580,7 +13620,7 @@
       </c>
       <c r="AZ54" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BA54" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -13588,7 +13628,7 @@
       </c>
       <c r="BB54" s="11" t="str" cm="1">
         <f t="array" ref="BB54">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>SALMON(52, { FISH }, 3, 31, 1.00, m(0.0, 0.0, 0.0, 4.0, 10.0, 2.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 8.0, 1.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 5.0), c(0xAB3533, 0xFF6763, 0x6B8073, 0xBD928B), "Salmonia", "鮭精サルモーニャ"),</v>
+        <v>SALMON(52, { FISH }, 3, 31, 1.00, m(0.0, 0.0, 0.0, 4.0, 10.0, 2.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 1.0, 0.0, 8.0, 1.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 5.0), c(0xAB3533, 0xFF6763, 0x6B8073, 0xBD928B), "Salmonia", "鮭精サルモーニャ"),</v>
       </c>
       <c r="BC54" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -13697,7 +13737,9 @@
         <v>1</v>
       </c>
       <c r="AL55" s="12"/>
-      <c r="AM55" s="12"/>
+      <c r="AM55" s="12">
+        <v>3</v>
+      </c>
       <c r="AN55" s="12"/>
       <c r="AO55" s="12">
         <v>7</v>
@@ -13728,7 +13770,7 @@
       </c>
       <c r="AZ55" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BA55" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -13736,7 +13778,7 @@
       </c>
       <c r="BB55" s="11" t="str" cm="1">
         <f t="array" ref="BB55">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>PUFFERFISH(53, { FISH }, 4, 36, 1.00, m(0.0, 12.0, 0.0, 0.0, 10.0, 0.0), e(11.0, 0.0, 0.0, 0.0, 0.0, 8.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 7.0, 3.0, 5.0, 1.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 5.0), c(0xEBDE39, 0xEBC500, 0xBF9B00, 0x429BBA), "Pufferfishia", "河豚精プッフェルフィーシャ"),</v>
+        <v>PUFFERFISH(53, { FISH }, 4, 36, 1.00, m(0.0, 12.0, 0.0, 0.0, 10.0, 0.0), e(11.0, 0.0, 0.0, 0.0, 0.0, 8.0, 0.0, 0.0, 1.0, 0.0, 3.0, 0.0, 7.0, 3.0, 5.0, 1.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 5.0), c(0xEBDE39, 0xEBC500, 0xBF9B00, 0x429BBA), "Pufferfishia", "河豚精プッフェルフィーシャ"),</v>
       </c>
       <c r="BC55" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -13843,7 +13885,9 @@
       <c r="AJ56" s="12"/>
       <c r="AK56" s="12"/>
       <c r="AL56" s="12"/>
-      <c r="AM56" s="12"/>
+      <c r="AM56" s="12">
+        <v>4</v>
+      </c>
       <c r="AN56" s="12"/>
       <c r="AO56" s="12">
         <v>1</v>
@@ -13872,7 +13916,7 @@
       </c>
       <c r="AZ56" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BA56" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -13880,7 +13924,7 @@
       </c>
       <c r="BB56" s="11" t="str" cm="1">
         <f t="array" ref="BB56">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>CLOWNFISH(54, { FISH }, 4, 26, 1.00, m(1.0, 0.0, 12.0, 0.0, 10.0, 0.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 5.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 6.0, 2.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 6.0), c(0xE46A22, 0xF46F20, 0xA94B1D, 0xFFDBC5), "Clownfishia", "隈之実精ツロウンフィーシャ"),</v>
+        <v>CLOWNFISH(54, { FISH }, 4, 26, 1.00, m(1.0, 0.0, 12.0, 0.0, 10.0, 0.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 5.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 1.0, 0.0, 6.0, 2.0, 1.0, 1.0, 0.0, 1.0, 0.0, 0.0, 6.0), c(0xE46A22, 0xF46F20, 0xA94B1D, 0xFFDBC5), "Clownfishia", "隈之実精ツロウンフィーシャ"),</v>
       </c>
       <c r="BC56" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -14131,7 +14175,9 @@
       <c r="AJ58" s="12"/>
       <c r="AK58" s="12"/>
       <c r="AL58" s="12"/>
-      <c r="AM58" s="12"/>
+      <c r="AM58" s="12">
+        <v>2</v>
+      </c>
       <c r="AN58" s="12">
         <v>9</v>
       </c>
@@ -14150,7 +14196,7 @@
       <c r="AY58" s="12"/>
       <c r="AZ58" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BA58" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -14158,7 +14204,7 @@
       </c>
       <c r="BB58" s="11" t="str" cm="1">
         <f t="array" ref="BB58">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>ANVIL(56, { MIRAGE }, 3, 82, 1.00, m(0.0, 2.0, 0.0, 10.0, 0.0, 2.0), e(2.0, 8.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 9.0, 0.0, 0.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFFFFF, 0xA9A9A9, 0x909090, 0xA86F18), "Anvilia", "金床精アンヴィーリャ"),</v>
+        <v>ANVIL(56, { MIRAGE }, 3, 82, 1.00, m(0.0, 2.0, 0.0, 10.0, 0.0, 2.0), e(2.0, 8.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 9.0, 0.0, 0.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFFFFF, 0xA9A9A9, 0x909090, 0xA86F18), "Anvilia", "金床精アンヴィーリャ"),</v>
       </c>
       <c r="BC58" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -14547,9 +14593,7 @@
       <c r="AJ61" s="12"/>
       <c r="AK61" s="12"/>
       <c r="AL61" s="12"/>
-      <c r="AM61" s="12">
-        <v>1</v>
-      </c>
+      <c r="AM61" s="12"/>
       <c r="AN61" s="12"/>
       <c r="AO61" s="12"/>
       <c r="AP61" s="12"/>
@@ -14574,7 +14618,7 @@
       </c>
       <c r="AZ61" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BA61" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -14582,7 +14626,7 @@
       </c>
       <c r="BB61" s="11" t="str" cm="1">
         <f t="array" ref="BB61">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>ENCHANT(59, { MIRAGE }, 3, 13, 1.00, m(2.0, 0.0, 10.0, 0.0, 2.0, 0.0), e(0.0, 6.0, 0.0, 5.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 12.0, 2.0, 0.0, 0.0, 0.0, 3.0, 2.0, 9.0), c(0xD0C2FF, 0xF055FF, 0xC381E3, 0xBE00FF), "Enchantia", "付魔精エンキャンチャ"),</v>
+        <v>ENCHANT(59, { MIRAGE }, 3, 13, 1.00, m(2.0, 0.0, 10.0, 0.0, 2.0, 0.0), e(0.0, 6.0, 0.0, 5.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 12.0, 2.0, 0.0, 0.0, 0.0, 3.0, 2.0, 9.0), c(0xD0C2FF, 0xF055FF, 0xC381E3, 0xBE00FF), "Enchantia", "付魔精エンキャンチャ"),</v>
       </c>
       <c r="BC61" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -14992,7 +15036,7 @@
       </c>
       <c r="AL64" s="12"/>
       <c r="AM64" s="12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AN64" s="12">
         <v>5</v>
@@ -15019,14 +15063,14 @@
       <c r="AV64" s="12"/>
       <c r="AW64" s="12"/>
       <c r="AX64" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY64" s="12">
         <v>10</v>
       </c>
       <c r="AZ64" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="BA64" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -15034,7 +15078,7 @@
       </c>
       <c r="BB64" s="11" t="str" cm="1">
         <f t="array" ref="BB64">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>VILLAGER(62, { MIRAGE }, 3, 50, 1.00, m(1.0, 5.0, 5.0, 10.0, 10.0, 15.0), e(4.0, 8.0, 5.0, 0.0, 0.0, 2.0, 0.0, 10.0, 4.0, 0.0, 2.0, 5.0, 3.0, 4.0, 12.0, 7.0, 3.0, 4.0, 0.0, 0.0, 0.0, 1.0, 10.0), c(0xB58D63, 0x608C57, 0x608C57, 0x009800), "Villageria", "村人精ヴィッラゲーリャ"),</v>
+        <v>VILLAGER(62, { MIRAGE }, 3, 50, 1.00, m(1.0, 5.0, 5.0, 10.0, 10.0, 15.0), e(4.0, 8.0, 5.0, 0.0, 0.0, 2.0, 0.0, 10.0, 4.0, 0.0, 9.0, 5.0, 3.0, 4.0, 12.0, 7.0, 3.0, 4.0, 0.0, 0.0, 0.0, 2.0, 10.0), c(0xB58D63, 0x608C57, 0x608C57, 0x009800), "Villageria", "村人精ヴィッラゲーリャ"),</v>
       </c>
       <c r="BC64" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -15158,7 +15202,7 @@
       </c>
       <c r="AL65" s="12"/>
       <c r="AM65" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AN65" s="12">
         <v>2</v>
@@ -15192,7 +15236,7 @@
       </c>
       <c r="AZ65" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="BA65" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -15200,7 +15244,7 @@
       </c>
       <c r="BB65" s="11" t="str" cm="1">
         <f t="array" ref="BB65">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>LIBRARIAN(63, { VILLAGER }, 4, 42, 1.00, m(3.0, 15.0, 15.0, 1.0, 10.0, 1.0), e(2.0, 4.0, 3.0, 0.0, 0.0, 2.0, 0.0, 13.0, 4.0, 0.0, 1.0, 2.0, 6.0, 2.0, 12.0, 15.0, 3.0, 5.0, 0.0, 0.0, 0.0, 1.0, 11.0), c(0xB58D63, 0xEBEBEB, 0xEBEBEB, 0x009800), "Librariania", "司書精リブラリアーニャ"),</v>
+        <v>LIBRARIAN(63, { VILLAGER }, 4, 42, 1.00, m(3.0, 15.0, 15.0, 1.0, 10.0, 1.0), e(2.0, 4.0, 3.0, 0.0, 0.0, 2.0, 0.0, 13.0, 4.0, 0.0, 8.0, 2.0, 6.0, 2.0, 12.0, 15.0, 3.0, 5.0, 0.0, 0.0, 0.0, 1.0, 11.0), c(0xB58D63, 0xEBEBEB, 0xEBEBEB, 0x009800), "Librariania", "司書精リブラリアーニャ"),</v>
       </c>
       <c r="BC65" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -15617,7 +15661,9 @@
       <c r="AJ68" s="12"/>
       <c r="AK68" s="12"/>
       <c r="AL68" s="12"/>
-      <c r="AM68" s="12"/>
+      <c r="AM68" s="12">
+        <v>2</v>
+      </c>
       <c r="AN68" s="12">
         <v>4</v>
       </c>
@@ -15638,7 +15684,7 @@
       <c r="AY68" s="12"/>
       <c r="AZ68" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BA68" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -15646,7 +15692,7 @@
       </c>
       <c r="BB68" s="11" t="str" cm="1">
         <f t="array" ref="BB68">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>HOE(66, { MIRAGE }, 2, 74, 1.00, m(0.0, 0.0, 0.0, 10.0, 8.0, 6.0), e(5.0, 3.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 8.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFFFFF, 0xFFC48E, 0x47FF00, 0xFFFFFF), "Hia", "鍬精ヒャ"),</v>
+        <v>HOE(66, { MIRAGE }, 2, 74, 1.00, m(0.0, 0.0, 0.0, 10.0, 8.0, 6.0), e(5.0, 3.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 4.0, 0.0, 8.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFFFFF, 0xFFC48E, 0x47FF00, 0xFFFFFF), "Hia", "鍬精ヒャ"),</v>
       </c>
       <c r="BC68" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -15757,7 +15803,9 @@
       <c r="AJ69" s="12"/>
       <c r="AK69" s="12"/>
       <c r="AL69" s="12"/>
-      <c r="AM69" s="12"/>
+      <c r="AM69" s="12">
+        <v>1</v>
+      </c>
       <c r="AN69" s="12"/>
       <c r="AO69" s="12"/>
       <c r="AP69" s="12"/>
@@ -15776,7 +15824,7 @@
       <c r="AY69" s="12"/>
       <c r="AZ69" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA69" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -15784,7 +15832,7 @@
       </c>
       <c r="BB69" s="11" t="str" cm="1">
         <f t="array" ref="BB69">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>SHIELD(67, { MIRAGE }, 2, 81, 1.00, m(0.1, 0.0, 0.0, 10.0, 4.0, 2.0), e(1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFFFFF, 0xFFC48E, 0x5A5A8E, 0xFFFFFF), "Shieldia", "盾精シエルジャ"),</v>
+        <v>SHIELD(67, { MIRAGE }, 2, 81, 1.00, m(0.1, 0.0, 0.0, 10.0, 4.0, 2.0), e(1.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFFFFF, 0xFFC48E, 0x5A5A8E, 0xFFFFFF), "Shieldia", "盾精シエルジャ"),</v>
       </c>
       <c r="BC69" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -15895,7 +15943,9 @@
       <c r="AL70" s="12">
         <v>1</v>
       </c>
-      <c r="AM70" s="12"/>
+      <c r="AM70" s="12">
+        <v>10</v>
+      </c>
       <c r="AN70" s="12"/>
       <c r="AO70" s="12"/>
       <c r="AP70" s="12"/>
@@ -15918,7 +15968,7 @@
       </c>
       <c r="AZ70" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="BA70" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -15926,7 +15976,7 @@
       </c>
       <c r="BB70" s="11" t="str" cm="1">
         <f t="array" ref="BB70">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>HOPPER(68, { MIRAGE }, 3, 63, 1.00, m(0.0, 3.0, 0.0, 10.0, 0.0, 2.0), e(0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 9.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0), c(0xFFFFFF, 0x797979, 0x646464, 0x5A5A5A), "Hopperia", "漏斗精ホッペーリャ"),</v>
+        <v>HOPPER(68, { MIRAGE }, 3, 63, 1.00, m(0.0, 3.0, 0.0, 10.0, 0.0, 2.0), e(0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 9.0, 1.0, 10.0, 0.0, 0.0, 0.0, 0.0, 3.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0), c(0xFFFFFF, 0x797979, 0x646464, 0x5A5A5A), "Hopperia", "漏斗精ホッペーリャ"),</v>
       </c>
       <c r="BC70" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -16164,7 +16214,7 @@
       <c r="AK72" s="12"/>
       <c r="AL72" s="12"/>
       <c r="AM72" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN72" s="12">
         <v>3</v>
@@ -16186,11 +16236,13 @@
         <v>1</v>
       </c>
       <c r="AW72" s="12"/>
-      <c r="AX72" s="12"/>
+      <c r="AX72" s="12">
+        <v>1</v>
+      </c>
       <c r="AY72" s="12"/>
       <c r="AZ72" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BA72" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -16198,7 +16250,7 @@
       </c>
       <c r="BB72" s="11" t="str" cm="1">
         <f t="array" ref="BB72">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>MAGNETITE(70, { MIRAGE }, 2, 62, 1.00, m(10.0, 18.0, 0.0, 18.0, 0.0, 95.0), e(0.0, 2.0, 4.0, 0.0, 0.0, 0.0, 8.0, 0.0, 0.0, 0.0, 2.0, 3.0, 3.0, 0.0, 0.0, 1.0, 0.0, 3.0, 0.0, 1.0, 0.0, 0.0, 0.0), c(0x72736D, 0x2A2A26, 0x1F201C, 0x1F201C), "Magnetitia", "磁鉄鉱精マグネティーチャ"),</v>
+        <v>MAGNETITE(70, { MIRAGE }, 2, 62, 1.00, m(10.0, 18.0, 0.0, 18.0, 0.0, 95.0), e(0.0, 2.0, 4.0, 0.0, 0.0, 0.0, 8.0, 0.0, 0.0, 0.0, 4.0, 3.0, 3.0, 0.0, 0.0, 1.0, 0.0, 3.0, 0.0, 1.0, 0.0, 1.0, 0.0), c(0x72736D, 0x2A2A26, 0x1F201C, 0x1F201C), "Magnetitia", "磁鉄鉱精マグネティーチャ"),</v>
       </c>
       <c r="BC72" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -16771,7 +16823,9 @@
       <c r="AJ76" s="12"/>
       <c r="AK76" s="12"/>
       <c r="AL76" s="12"/>
-      <c r="AM76" s="12"/>
+      <c r="AM76" s="12">
+        <v>2</v>
+      </c>
       <c r="AN76" s="12">
         <v>4</v>
       </c>
@@ -16796,7 +16850,7 @@
       <c r="AY76" s="12"/>
       <c r="AZ76" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BA76" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -16804,7 +16858,7 @@
       </c>
       <c r="BB76" s="11" t="str" cm="1">
         <f t="array" ref="BB76">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>FLUORITE(74, { MIRAGE }, 3, 59, 1.00, m(10.0, 26.0, 53.0, 5.0, 0.0, 64.0), e(0.0, 4.0, 0.0, 7.0, 4.0, 0.0, 14.0, 0.0, 0.0, 0.0, 0.0, 4.0, 3.0, 0.0, 0.0, 5.0, 0.0, 0.0, 0.0, 1.0, 0.0, 2.0, 0.0), c(0xC0FEF3, 0x28E1C7, 0xAE91E9, 0x66CDEB), "Fluoritia", "蛍石精フルオリーチャ"),</v>
+        <v>FLUORITE(74, { MIRAGE }, 3, 59, 1.00, m(10.0, 26.0, 53.0, 5.0, 0.0, 64.0), e(0.0, 4.0, 0.0, 7.0, 4.0, 0.0, 14.0, 0.0, 0.0, 0.0, 2.0, 4.0, 3.0, 0.0, 0.0, 5.0, 0.0, 0.0, 0.0, 1.0, 0.0, 2.0, 0.0), c(0xC0FEF3, 0x28E1C7, 0xAE91E9, 0x66CDEB), "Fluoritia", "蛍石精フルオリーチャ"),</v>
       </c>
       <c r="BC76" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -17361,7 +17415,9 @@
       </c>
       <c r="AK80" s="12"/>
       <c r="AL80" s="12"/>
-      <c r="AM80" s="12"/>
+      <c r="AM80" s="12">
+        <v>1</v>
+      </c>
       <c r="AN80" s="12"/>
       <c r="AO80" s="12"/>
       <c r="AP80" s="12"/>
@@ -17382,7 +17438,7 @@
       <c r="AY80" s="12"/>
       <c r="AZ80" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BA80" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -17390,7 +17446,7 @@
       </c>
       <c r="BB80" s="11" t="str" cm="1">
         <f t="array" ref="BB80">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>CHRISTMAS(78, { TIME }, 4, 25, 1.20, m(2.0, 3.0, 10.0, 0.0, 7.0, 7.0), e(0.0, 0.0, 0.0, 4.0, 3.0, 4.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 10.0, 14.0, 0.0, 3.0, 0.0), c(0xD2E6F6, 0xF1150F, 0xB20000, 0x248541), "Christmasia", "聖夜精キュリストマーシャ"),</v>
+        <v>CHRISTMAS(78, { TIME }, 4, 25, 1.20, m(2.0, 3.0, 10.0, 0.0, 7.0, 7.0), e(0.0, 0.0, 0.0, 4.0, 3.0, 4.0, 0.0, 2.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 10.0, 14.0, 0.0, 3.0, 0.0), c(0xD2E6F6, 0xF1150F, 0xB20000, 0x248541), "Christmasia", "聖夜精キュリストマーシャ"),</v>
       </c>
       <c r="BC80" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -17518,7 +17574,7 @@
         <v>7</v>
       </c>
       <c r="AM81" s="12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AN81" s="12">
         <v>1</v>
@@ -17549,14 +17605,14 @@
       </c>
       <c r="AW81" s="12"/>
       <c r="AX81" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY81" s="12">
         <v>12</v>
       </c>
       <c r="AZ81" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BA81" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -17564,7 +17620,7 @@
       </c>
       <c r="BB81" s="11" t="str" cm="1">
         <f t="array" ref="BB81">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>SANTA_CLAUS(79, { MIRAGE }, 5, 12, 1.20, m(4.0, 10.0, 20.0, 5.0, 10.0, 5.0), e(3.0, 6.0, 5.0, 3.0, 0.0, 2.0, 0.0, 12.0, 14.0, 7.0, 4.0, 1.0, 1.0, 1.0, 7.0, 9.0, 5.0, 1.0, 10.0, 6.0, 0.0, 11.0, 12.0), c(0xCDBBAD, 0xD61728, 0xDA0117, 0xDAD8D4), "Sante Clausia", "聖夜老人精サンテツラウシャ"),</v>
+        <v>SANTA_CLAUS(79, { MIRAGE }, 5, 12, 1.20, m(4.0, 10.0, 20.0, 5.0, 10.0, 5.0), e(3.0, 6.0, 5.0, 3.0, 0.0, 2.0, 0.0, 12.0, 14.0, 7.0, 9.0, 1.0, 1.0, 1.0, 7.0, 9.0, 5.0, 1.0, 10.0, 6.0, 0.0, 12.0, 12.0), c(0xCDBBAD, 0xD61728, 0xDA0117, 0xDAD8D4), "Sante Clausia", "聖夜老人精サンテツラウシャ"),</v>
       </c>
       <c r="BC81" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -17979,7 +18035,9 @@
         <v>1</v>
       </c>
       <c r="AL84" s="12"/>
-      <c r="AM84" s="12"/>
+      <c r="AM84" s="12">
+        <v>4</v>
+      </c>
       <c r="AN84" s="12">
         <v>12</v>
       </c>
@@ -18006,7 +18064,7 @@
       </c>
       <c r="AZ84" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BA84" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -18014,7 +18072,7 @@
       </c>
       <c r="BB84" s="11" t="str" cm="1">
         <f t="array" ref="BB84">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>GOLEM(82, { MIRAGE }, 3, 92, 1.00, m(0.0, 12.0, 10.0, 10.0, 0.0, 1.0), e(21.0, 2.0, 7.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 12.0, 0.0, 1.0, 0.0, 4.0, 0.0, 15.0, 0.0, 0.0, 0.0, 1.0, 7.0), c(0xC1AB9E, 0xB5ADA8, 0xABA39D, 0x557725), "Golemia", "鉄魔像精ゴレーミャ"),</v>
+        <v>GOLEM(82, { MIRAGE }, 3, 92, 1.00, m(0.0, 12.0, 10.0, 10.0, 0.0, 1.0), e(21.0, 2.0, 7.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 0.0, 4.0, 12.0, 0.0, 1.0, 0.0, 4.0, 0.0, 15.0, 0.0, 0.0, 0.0, 1.0, 7.0), c(0xC1AB9E, 0xB5ADA8, 0xABA39D, 0x557725), "Golemia", "鉄魔像精ゴレーミャ"),</v>
       </c>
       <c r="BC84" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -19301,7 +19359,9 @@
       <c r="AL93" s="12">
         <v>4</v>
       </c>
-      <c r="AM93" s="12"/>
+      <c r="AM93" s="12">
+        <v>2</v>
+      </c>
       <c r="AN93" s="12">
         <v>5</v>
       </c>
@@ -19336,7 +19396,7 @@
       </c>
       <c r="AZ93" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BA93" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -19344,7 +19404,7 @@
       </c>
       <c r="BB93" s="11" t="str" cm="1">
         <f t="array" ref="BB93">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>TOURMALINE(91, { MIRAGE }, 4, 66, 1.00, m(10.0, 51.0, 0.0, 19.0, 0.0, 42.0), e(0.0, 6.0, 0.0, 1.0, 0.0, 0.0, 11.0, 0.0, 0.0, 4.0, 0.0, 5.0, 5.0, 5.0, 0.0, 6.0, 5.0, 5.0, 0.0, 1.0, 14.0, 5.0, 5.0), c(0xF3F3F2, 0x3CCB5D, 0xB15498, 0xD7F5FF), "Tourmalinia", "電気石精トウルマリーニャ"),</v>
+        <v>TOURMALINE(91, { MIRAGE }, 4, 66, 1.00, m(10.0, 51.0, 0.0, 19.0, 0.0, 42.0), e(0.0, 6.0, 0.0, 1.0, 0.0, 0.0, 11.0, 0.0, 0.0, 4.0, 2.0, 5.0, 5.0, 5.0, 0.0, 6.0, 5.0, 5.0, 0.0, 1.0, 14.0, 5.0, 5.0), c(0xF3F3F2, 0x3CCB5D, 0xB15498, 0xD7F5FF), "Tourmalinia", "電気石精トウルマリーニャ"),</v>
       </c>
       <c r="BC93" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -19609,7 +19669,9 @@
         <v>1</v>
       </c>
       <c r="AL95" s="12"/>
-      <c r="AM95" s="12"/>
+      <c r="AM95" s="12">
+        <v>6</v>
+      </c>
       <c r="AN95" s="12">
         <v>3</v>
       </c>
@@ -19642,7 +19704,7 @@
       </c>
       <c r="AZ95" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="BA95" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -19650,7 +19712,7 @@
       </c>
       <c r="BB95" s="11" t="str" cm="1">
         <f t="array" ref="BB95">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>COW(93, { MIRAGE }, 1, 54, 1.00, m(0.0, 0.0, 0.0, 2.0, 10.0, 5.0), e(2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 5.0, 1.0, 0.0, 0.0, 3.0, 2.0, 1.0, 13.0, 3.0, 4.0, 4.0, 0.0, 0.0, 0.0, 1.0, 9.0), c(0x433626, 0x644B37, 0x4A3828, 0xADADAD), "Cowia", "牛精ツォーウャ"),</v>
+        <v>COW(93, { MIRAGE }, 1, 54, 1.00, m(0.0, 0.0, 0.0, 2.0, 10.0, 5.0), e(2.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 5.0, 1.0, 0.0, 6.0, 3.0, 2.0, 1.0, 13.0, 3.0, 4.0, 4.0, 0.0, 0.0, 0.0, 1.0, 9.0), c(0x433626, 0x644B37, 0x4A3828, 0xADADAD), "Cowia", "牛精ツォーウャ"),</v>
       </c>
       <c r="BC95" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -19759,7 +19821,9 @@
       </c>
       <c r="AK96" s="12"/>
       <c r="AL96" s="12"/>
-      <c r="AM96" s="12"/>
+      <c r="AM96" s="12">
+        <v>6</v>
+      </c>
       <c r="AN96" s="12"/>
       <c r="AO96" s="12">
         <v>1</v>
@@ -19788,7 +19852,7 @@
       </c>
       <c r="AZ96" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="BA96" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -19796,7 +19860,7 @@
       </c>
       <c r="BB96" s="11" t="str" cm="1">
         <f t="array" ref="BB96">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>PIG(94, { MIRAGE }, 1, 53, 1.00, m(0.0, 0.0, 0.0, 0.0, 10.0, 6.0), e(1.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 13.0, 3.0, 4.0, 2.0, 0.0, 0.0, 0.0, 1.0, 8.0), c(0xDB98A2, 0xF68C87, 0xC76B73, 0xDC94A1), "Pigia", "豚精ピーギャ"),</v>
+        <v>PIG(94, { MIRAGE }, 1, 53, 1.00, m(0.0, 0.0, 0.0, 0.0, 10.0, 6.0), e(1.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 4.0, 0.0, 0.0, 6.0, 0.0, 1.0, 0.0, 13.0, 3.0, 4.0, 2.0, 0.0, 0.0, 0.0, 1.0, 8.0), c(0xDB98A2, 0xF68C87, 0xC76B73, 0xDC94A1), "Pigia", "豚精ピーギャ"),</v>
       </c>
       <c r="BC96" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -21890,7 +21954,7 @@
         <v>8</v>
       </c>
       <c r="AM111" s="12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AN111" s="12">
         <v>7</v>
@@ -21914,13 +21978,15 @@
       <c r="AU111" s="12"/>
       <c r="AV111" s="12"/>
       <c r="AW111" s="12"/>
-      <c r="AX111" s="12"/>
+      <c r="AX111" s="12">
+        <v>12</v>
+      </c>
       <c r="AY111" s="12">
         <v>14</v>
       </c>
       <c r="AZ111" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="BA111" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -21928,7 +21994,7 @@
       </c>
       <c r="BB111" s="11" t="str" cm="1">
         <f t="array" ref="BB111">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>CUPID(109, { MIRAGE }, 5, 33, 1.20, m(10.0, 0.0, 24.0, 11.0, 41.0, 0.0), e(6.0, 3.0, 2.0, 6.0, 0.0, 1.0, 0.0, 10.0, 3.0, 8.0, 14.0, 7.0, 2.0, 0.0, 16.0, 11.0, 2.0, 10.0, 0.0, 0.0, 0.0, 0.0, 14.0), c(0xCDBBAD, 0xE4F4FF, 0xDDEEFF, 0x893F1E), "Cupidia", "恋射手精ツピージャ"),</v>
+        <v>CUPID(109, { MIRAGE }, 5, 33, 1.20, m(10.0, 0.0, 24.0, 11.0, 41.0, 0.0), e(6.0, 3.0, 2.0, 6.0, 0.0, 1.0, 0.0, 10.0, 3.0, 8.0, 11.0, 7.0, 2.0, 0.0, 16.0, 11.0, 2.0, 10.0, 0.0, 0.0, 0.0, 12.0, 14.0), c(0xCDBBAD, 0xE4F4FF, 0xDDEEFF, 0x893F1E), "Cupidia", "恋射手精ツピージャ"),</v>
       </c>
       <c r="BC111" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -22200,7 +22266,7 @@
         <v>6</v>
       </c>
       <c r="AM113" s="12">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AN113" s="12">
         <v>2</v>
@@ -22226,13 +22292,15 @@
       <c r="AU113" s="12"/>
       <c r="AV113" s="12"/>
       <c r="AW113" s="12"/>
-      <c r="AX113" s="12"/>
+      <c r="AX113" s="12">
+        <v>7</v>
+      </c>
       <c r="AY113" s="12">
         <v>7</v>
       </c>
       <c r="AZ113" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="BA113" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -22240,7 +22308,7 @@
       </c>
       <c r="BB113" s="11" t="str" cm="1">
         <f t="array" ref="BB113">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>SHULKER(111, { MIRAGE }, 4, 48, 1.00, m(2.0, 0.0, 8.0, 6.0, 10.0, 0.0), e(16.0, 0.0, 0.0, 1.0, 0.0, 2.0, 2.0, 2.0, 12.0, 6.0, 13.0, 2.0, 1.0, 1.0, 5.0, 5.0, 1.0, 4.0, 0.0, 0.0, 0.0, 0.0, 7.0), c(0xDDE8A7, 0xB27AAA, 0x4B324B, 0x7B4873), "Shulkeria", "潜影貝精シュルケーリャ"),</v>
+        <v>SHULKER(111, { MIRAGE }, 4, 48, 1.00, m(2.0, 0.0, 8.0, 6.0, 10.0, 0.0), e(16.0, 0.0, 0.0, 1.0, 0.0, 2.0, 2.0, 2.0, 12.0, 6.0, 2.0, 2.0, 1.0, 1.0, 5.0, 5.0, 1.0, 4.0, 0.0, 0.0, 0.0, 7.0, 7.0), c(0xDDE8A7, 0xB27AAA, 0x4B324B, 0x7B4873), "Shulkeria", "潜影貝精シュルケーリャ"),</v>
       </c>
       <c r="BC113" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -22355,7 +22423,9 @@
         <v>2</v>
       </c>
       <c r="AL114" s="12"/>
-      <c r="AM114" s="12"/>
+      <c r="AM114" s="12">
+        <v>6</v>
+      </c>
       <c r="AN114" s="12"/>
       <c r="AO114" s="12">
         <v>2</v>
@@ -22382,7 +22452,7 @@
       </c>
       <c r="AZ114" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="BA114" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -22390,7 +22460,7 @@
       </c>
       <c r="BB114" s="11" t="str" cm="1">
         <f t="array" ref="BB114">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>SLIME(112, { MIRAGE }, 3, 52, 1.00, m(0.0, 6.0, 10.0, 0.0, 4.0, 3.0), e(8.0, 0.0, 0.0, 0.0, 0.0, 5.0, 0.0, 1.0, 2.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 1.0, 1.0, 2.0, 0.0, 0.0, 0.0, 4.0, 3.0), c(0x74BE5F, 0x71BC5E, 0x569746, 0x488A36), "Slimia", "吐泥精スリーミャ"),</v>
+        <v>SLIME(112, { MIRAGE }, 3, 52, 1.00, m(0.0, 6.0, 10.0, 0.0, 4.0, 3.0), e(8.0, 0.0, 0.0, 0.0, 0.0, 5.0, 0.0, 1.0, 2.0, 0.0, 6.0, 0.0, 2.0, 0.0, 0.0, 1.0, 1.0, 2.0, 0.0, 0.0, 0.0, 4.0, 3.0), c(0x74BE5F, 0x71BC5E, 0x569746, 0x488A36), "Slimia", "吐泥精スリーミャ"),</v>
       </c>
       <c r="BC114" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -22503,7 +22573,9 @@
         <v>1</v>
       </c>
       <c r="AL115" s="12"/>
-      <c r="AM115" s="12"/>
+      <c r="AM115" s="12">
+        <v>6</v>
+      </c>
       <c r="AN115" s="12"/>
       <c r="AO115" s="12">
         <v>3</v>
@@ -22530,7 +22602,7 @@
       </c>
       <c r="AZ115" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="BA115" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -22538,7 +22610,7 @@
       </c>
       <c r="BB115" s="11" t="str" cm="1">
         <f t="array" ref="BB115">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>MAGMA_CUBE(113, { SLIME }, 4, 68, 1.00, m(0.0, 9.0, 10.0, 0.0, 0.0, 0.0), e(14.0, 0.0, 0.0, 4.0, 14.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 1.0, 8.0, 2.0, 0.0, 0.0, 0.0, 4.0, 2.0), c(0x3A0000, 0x592301, 0x300000, 0xE35C05), "Magme Cubia", "溶岩賽精マグメツービャ"),</v>
+        <v>MAGMA_CUBE(113, { SLIME }, 4, 68, 1.00, m(0.0, 9.0, 10.0, 0.0, 0.0, 0.0), e(14.0, 0.0, 0.0, 4.0, 14.0, 0.0, 0.0, 1.0, 1.0, 0.0, 6.0, 0.0, 3.0, 0.0, 0.0, 1.0, 8.0, 2.0, 0.0, 0.0, 0.0, 4.0, 2.0), c(0x3A0000, 0x592301, 0x300000, 0xE35C05), "Magme Cubia", "溶岩賽精マグメツービャ"),</v>
       </c>
       <c r="BC115" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -22654,7 +22726,7 @@
       <c r="AK116" s="12"/>
       <c r="AL116" s="12"/>
       <c r="AM116" s="12">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AN116" s="12">
         <v>1</v>
@@ -22679,14 +22751,14 @@
       <c r="AV116" s="12"/>
       <c r="AW116" s="12"/>
       <c r="AX116" s="12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY116" s="12">
         <v>6</v>
       </c>
       <c r="AZ116" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="BA116" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -22694,7 +22766,7 @@
       </c>
       <c r="BB116" s="11" t="str" cm="1">
         <f t="array" ref="BB116">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>BLAZE(114, { MIRAGE }, 3, 26, 1.00, m(0.1, 15.0, 10.0, 2.0, 0.0, 0.0), e(15.0, 0.0, 0.0, 9.0, 16.0, 0.0, 0.0, 3.0, 0.0, 0.0, 13.0, 1.0, 2.0, 0.0, 1.0, 3.0, 13.0, 3.0, 0.0, 0.0, 0.0, 9.0, 6.0), c(0xE7DA21, 0xCB6E06, 0xB44500, 0xFF8025), "Blazia", "烈炎精ブラージャ"),</v>
+        <v>BLAZE(114, { MIRAGE }, 3, 26, 1.00, m(0.1, 15.0, 10.0, 2.0, 0.0, 0.0), e(15.0, 0.0, 0.0, 9.0, 16.0, 0.0, 0.0, 3.0, 0.0, 0.0, 4.0, 1.0, 2.0, 0.0, 1.0, 3.0, 13.0, 3.0, 0.0, 0.0, 0.0, 11.0, 6.0), c(0xE7DA21, 0xCB6E06, 0xB44500, 0xFF8025), "Blazia", "烈炎精ブラージャ"),</v>
       </c>
       <c r="BC116" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -23103,7 +23175,9 @@
         <v>1</v>
       </c>
       <c r="AL119" s="12"/>
-      <c r="AM119" s="12"/>
+      <c r="AM119" s="12">
+        <v>1</v>
+      </c>
       <c r="AN119" s="12"/>
       <c r="AO119" s="12">
         <v>1</v>
@@ -23126,7 +23200,7 @@
       <c r="AY119" s="12"/>
       <c r="AZ119" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BA119" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -23134,7 +23208,7 @@
       </c>
       <c r="BB119" s="11" t="str" cm="1">
         <f t="array" ref="BB119">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>BEETROOT_SOUP(117, { BEETROOT }, 3, 28, 1.00, m(0.0, 7.0, 2.0, 3.0, 10.0, 0.0), e(1.0, 1.0, 0.0, 0.0, 13.0, 7.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 13.0, 0.0, 3.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xC70623, 0xDF0F27, 0xAC0616, 0x900000), "Beetroote Soupia", "火焔菜汁精ベートローテソウピャ"),</v>
+        <v>BEETROOT_SOUP(117, { BEETROOT }, 3, 28, 1.00, m(0.0, 7.0, 2.0, 3.0, 10.0, 0.0), e(1.0, 1.0, 0.0, 0.0, 13.0, 7.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 1.0, 0.0, 13.0, 0.0, 3.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xC70623, 0xDF0F27, 0xAC0616, 0x900000), "Beetroote Soupia", "火焔菜汁精ベートローテソウピャ"),</v>
       </c>
       <c r="BC119" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -23397,7 +23471,9 @@
       <c r="AJ121" s="12"/>
       <c r="AK121" s="12"/>
       <c r="AL121" s="12"/>
-      <c r="AM121" s="12"/>
+      <c r="AM121" s="12">
+        <v>1</v>
+      </c>
       <c r="AN121" s="12">
         <v>2</v>
       </c>
@@ -23428,7 +23504,7 @@
       </c>
       <c r="AZ121" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BA121" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -23436,7 +23512,7 @@
       </c>
       <c r="BB121" s="11" t="str" cm="1">
         <f t="array" ref="BB121">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>IMPERIAL_TOPAZ(119, { TOPAZ }, 5, 82, 1.20, m(10.0, 15.0, 23.0, 0.0, 26.0, 0.0), e(0.0, 1.0, 0.0, 18.0, 6.0, 0.0, 15.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 6.0, 0.0, 5.0, 11.0, 12.0, 0.0, 1.0, 0.0, 3.0, 6.0), c(0xFFD6AD, 0xFFCD94, 0xE89F4E, 0xFFB37E), "Imperiale Topazia", "皇帝黄玉精インペリアーレトパージャ"),</v>
+        <v>IMPERIAL_TOPAZ(119, { TOPAZ }, 5, 82, 1.20, m(10.0, 15.0, 23.0, 0.0, 26.0, 0.0), e(0.0, 1.0, 0.0, 18.0, 6.0, 0.0, 15.0, 0.0, 0.0, 0.0, 1.0, 2.0, 0.0, 6.0, 0.0, 5.0, 11.0, 12.0, 0.0, 1.0, 0.0, 3.0, 6.0), c(0xFFD6AD, 0xFFCD94, 0xE89F4E, 0xFFB37E), "Imperiale Topazia", "皇帝黄玉精インペリアーレトパージャ"),</v>
       </c>
       <c r="BC121" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -23547,7 +23623,9 @@
         <v>14</v>
       </c>
       <c r="AL122" s="12"/>
-      <c r="AM122" s="12"/>
+      <c r="AM122" s="12">
+        <v>6</v>
+      </c>
       <c r="AN122" s="12"/>
       <c r="AO122" s="12"/>
       <c r="AP122" s="12">
@@ -23566,7 +23644,7 @@
       <c r="AY122" s="12"/>
       <c r="AZ122" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BA122" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -23574,7 +23652,7 @@
       </c>
       <c r="BB122" s="11" t="str" cm="1">
         <f t="array" ref="BB122">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>DOOR(120, { MIRAGE }, 1, 75, 1.00, m(0.0, 5.0, 0.0, 10.0, 0.0, 5.0), e(0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 14.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFFFFF, 0xD0A24C, 0xD1A440, 0x393B37), "Dooria", "扉精ドーリャ"),</v>
+        <v>DOOR(120, { MIRAGE }, 1, 75, 1.00, m(0.0, 5.0, 0.0, 10.0, 0.0, 5.0), e(0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 14.0, 0.0, 6.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFFFFF, 0xD0A24C, 0xD1A440, 0x393B37), "Dooria", "扉精ドーリャ"),</v>
       </c>
       <c r="BC122" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -23687,7 +23765,9 @@
         <v>17</v>
       </c>
       <c r="AL123" s="12"/>
-      <c r="AM123" s="12"/>
+      <c r="AM123" s="12">
+        <v>6</v>
+      </c>
       <c r="AN123" s="12"/>
       <c r="AO123" s="12"/>
       <c r="AP123" s="12">
@@ -23708,7 +23788,7 @@
       <c r="AY123" s="12"/>
       <c r="AZ123" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="BA123" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -23716,7 +23796,7 @@
       </c>
       <c r="BB123" s="11" t="str" cm="1">
         <f t="array" ref="BB123">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>IRON_DOOR(121, { DOOR }, 3, 84, 1.00, m(0.1, 7.0, 0.0, 10.0, 0.0, 1.0), e(0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 17.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 1.0, 0.0, 13.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFFFFF, 0xCDCDCD, 0xCDCDCD, 0x959595), "Irone Dooria", "鉄扉精イローネドーリャ"),</v>
+        <v>IRON_DOOR(121, { DOOR }, 3, 84, 1.00, m(0.1, 7.0, 0.0, 10.0, 0.0, 1.0), e(0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 17.0, 0.0, 6.0, 0.0, 0.0, 2.0, 0.0, 1.0, 0.0, 13.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFFFFF, 0xCDCDCD, 0xCDCDCD, 0x959595), "Irone Dooria", "鉄扉精イローネドーリャ"),</v>
       </c>
       <c r="BC123" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -24263,7 +24343,9 @@
         <v>1</v>
       </c>
       <c r="AL127" s="12"/>
-      <c r="AM127" s="12"/>
+      <c r="AM127" s="12">
+        <v>1</v>
+      </c>
       <c r="AN127" s="12"/>
       <c r="AO127" s="12">
         <v>2</v>
@@ -24286,7 +24368,7 @@
       <c r="AY127" s="12"/>
       <c r="AZ127" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BA127" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -24294,7 +24376,7 @@
       </c>
       <c r="BB127" s="11" t="str" cm="1">
         <f t="array" ref="BB127">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>MUSHROOM_STEW(125, { MIRAGE }, 3, 22, 1.00, m(0.0, 3.0, 11.0, 5.0, 10.0, 3.0), e(0.0, 2.0, 0.0, 0.0, 4.0, 6.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 2.0, 0.0, 14.0, 1.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFB17E, 0xFF9666, 0xFF8A4A, 0xE7936A), "Mushroome Stewia", "茸煮精ムシュローメステーウャ"),</v>
+        <v>MUSHROOM_STEW(125, { MIRAGE }, 3, 22, 1.00, m(0.0, 3.0, 11.0, 5.0, 10.0, 3.0), e(0.0, 2.0, 0.0, 0.0, 4.0, 6.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 2.0, 0.0, 14.0, 1.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xFFB17E, 0xFF9666, 0xFF8A4A, 0xE7936A), "Mushroome Stewia", "茸煮精ムシュローメステーウャ"),</v>
       </c>
       <c r="BC127" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -24705,7 +24787,9 @@
       <c r="AJ130" s="12"/>
       <c r="AK130" s="12"/>
       <c r="AL130" s="12"/>
-      <c r="AM130" s="12"/>
+      <c r="AM130" s="12">
+        <v>2</v>
+      </c>
       <c r="AN130" s="12"/>
       <c r="AO130" s="12"/>
       <c r="AP130" s="12"/>
@@ -24728,7 +24812,7 @@
       <c r="AY130" s="12"/>
       <c r="AZ130" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BA130" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -24736,7 +24820,7 @@
       </c>
       <c r="BB130" s="11" t="str" cm="1">
         <f t="array" ref="BB130">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>SUNRISE(128, { TIME }, 3, 84, 1.00, m(1.0, 6.0, 10.0, 1.0, 7.0, 21.0), e(0.0, 0.0, 0.0, 8.0, 4.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 4.0, 0.0, 4.0, 0.0, 17.0, 0.0), c(0xFFE260, 0xFF873A, 0xFF873A, 0xFF1D00), "Sunrisia", "日昇精スンリーシャ"),</v>
+        <v>SUNRISE(128, { TIME }, 3, 84, 1.00, m(1.0, 6.0, 10.0, 1.0, 7.0, 21.0), e(0.0, 0.0, 0.0, 8.0, 4.0, 1.0, 0.0, 0.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 4.0, 0.0, 4.0, 0.0, 17.0, 0.0), c(0xFFE260, 0xFF873A, 0xFF873A, 0xFF1D00), "Sunrisia", "日昇精スンリーシャ"),</v>
       </c>
       <c r="BC130" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -24847,7 +24931,9 @@
       <c r="AL131" s="12">
         <v>13</v>
       </c>
-      <c r="AM131" s="12"/>
+      <c r="AM131" s="12">
+        <v>2</v>
+      </c>
       <c r="AN131" s="12"/>
       <c r="AO131" s="12"/>
       <c r="AP131" s="12"/>
@@ -24870,7 +24956,7 @@
       </c>
       <c r="AZ131" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="BA131" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -24878,7 +24964,7 @@
       </c>
       <c r="BB131" s="11" t="str" cm="1">
         <f t="array" ref="BB131">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>HATSUYUME(129, { MIRAGE }, 5, 11, 1.20, m(10.0, 5.0, 22.0, 0.0, 13.0, 0.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 6.0, 13.0, 0.0, 0.0, 0.0, 0.0, 4.0, 14.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 18.0), c(0xFFBE80, 0xB8FFE4, 0xA5FFD5, 0x2FFFA7), "Hatsuyumia", "初夢精ハツユーミャ"),</v>
+        <v>HATSUYUME(129, { MIRAGE }, 5, 11, 1.20, m(10.0, 5.0, 22.0, 0.0, 13.0, 0.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 6.0, 13.0, 2.0, 0.0, 0.0, 0.0, 4.0, 14.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0, 18.0), c(0xFFBE80, 0xB8FFE4, 0xA5FFD5, 0x2FFFA7), "Hatsuyumia", "初夢精ハツユーミャ"),</v>
       </c>
       <c r="BC131" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -25002,7 +25088,7 @@
       </c>
       <c r="AL132" s="12"/>
       <c r="AM132" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AN132" s="12">
         <v>10</v>
@@ -25029,14 +25115,14 @@
       <c r="AV132" s="12"/>
       <c r="AW132" s="12"/>
       <c r="AX132" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY132" s="12">
         <v>10</v>
       </c>
       <c r="AZ132" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="BA132" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -25044,7 +25130,7 @@
       </c>
       <c r="BB132" s="11" t="str" cm="1">
         <f t="array" ref="BB132">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>PLAYER(130, { MIRAGE }, 5, 50, 1.00, m(10.0, 10.0, 10.0, 10.0, 10.0, 10.0), e(10.0, 10.0, 10.0, 0.0, 0.0, 2.0, 0.0, 10.0, 5.0, 0.0, 3.0, 10.0, 3.0, 3.0, 10.0, 10.0, 3.0, 1.0, 0.0, 0.0, 0.0, 3.0, 10.0), c(0xB58D63, 0x00AAAA, 0x322976, 0x4B3422), "Playeria", "人精プライェーリャ"),</v>
+        <v>PLAYER(130, { MIRAGE }, 5, 50, 1.00, m(10.0, 10.0, 10.0, 10.0, 10.0, 10.0), e(10.0, 10.0, 10.0, 0.0, 0.0, 2.0, 0.0, 10.0, 5.0, 0.0, 10.0, 10.0, 3.0, 3.0, 10.0, 10.0, 3.0, 1.0, 0.0, 0.0, 0.0, 4.0, 10.0), c(0xB58D63, 0x00AAAA, 0x322976, 0x4B3422), "Playeria", "人精プライェーリャ"),</v>
       </c>
       <c r="BC132" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -25187,14 +25273,14 @@
         <v>8</v>
       </c>
       <c r="AX133" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY133" s="12">
         <v>4</v>
       </c>
       <c r="AZ133" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BA133" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -25202,7 +25288,7 @@
       </c>
       <c r="BB133" s="11" t="str" cm="1">
         <f t="array" ref="BB133">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>CHARGED_CREEPER(131, { CREEPER }, 5, 41, 1.00, m(0.0, 8.0, 10.0, 13.0, 9.0, 0.0), e(18.0, 1.0, 0.0, 0.0, 5.0, 2.0, 0.0, 0.0, 0.0, 0.0, 5.0, 23.0, 8.0, 0.0, 5.0, 3.0, 9.0, 1.0, 0.0, 0.0, 8.0, 1.0, 4.0), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x7AD5FF), "Chargede Creeperia", "巨匠精キャルゲーデツレペーリャ"),</v>
+        <v>CHARGED_CREEPER(131, { CREEPER }, 5, 41, 1.00, m(0.0, 8.0, 10.0, 13.0, 9.0, 0.0), e(18.0, 1.0, 0.0, 0.0, 5.0, 2.0, 0.0, 0.0, 0.0, 0.0, 5.0, 23.0, 8.0, 0.0, 5.0, 3.0, 9.0, 1.0, 0.0, 0.0, 8.0, 3.0, 4.0), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x7AD5FF), "Chargede Creeperia", "巨匠精キャルゲーデツレペーリャ"),</v>
       </c>
       <c r="BC133" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -25603,7 +25689,9 @@
       </c>
       <c r="AK136" s="12"/>
       <c r="AL136" s="12"/>
-      <c r="AM136" s="12"/>
+      <c r="AM136" s="12">
+        <v>2</v>
+      </c>
       <c r="AN136" s="12"/>
       <c r="AO136" s="12"/>
       <c r="AP136" s="12"/>
@@ -25624,7 +25712,7 @@
       </c>
       <c r="AZ136" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA136" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -25632,7 +25720,7 @@
       </c>
       <c r="BB136" s="11" t="str" cm="1">
         <f t="array" ref="BB136">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>NOTE(134, { MIRAGE }, 3, 18, 1.00, m(0.0, 10.0, 2.0, 4.0, 9.0, 4.0), e(0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 12.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 5.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 7.0), c(0xFFFFFF, 0x955A3E, 0x915840, 0xD40102), "Notia", "音符精ノーチャ"),</v>
+        <v>NOTE(134, { MIRAGE }, 3, 18, 1.00, m(0.0, 10.0, 2.0, 4.0, 9.0, 4.0), e(0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 12.0, 0.0, 0.0, 2.0, 0.0, 0.0, 0.0, 0.0, 5.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 7.0), c(0xFFFFFF, 0x955A3E, 0x915840, 0xD40102), "Notia", "音符精ノーチャ"),</v>
       </c>
       <c r="BC136" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -25750,7 +25838,7 @@
       </c>
       <c r="AL137" s="12"/>
       <c r="AM137" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN137" s="12"/>
       <c r="AO137" s="12"/>
@@ -25772,7 +25860,7 @@
       </c>
       <c r="AZ137" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BA137" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -25780,7 +25868,7 @@
       </c>
       <c r="BB137" s="11" t="str" cm="1">
         <f t="array" ref="BB137">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>JUKEBOX(135, { MIRAGE }, 4, 58, 1.00, m(0.1, 6.0, 5.0, 10.0, 13.0, 0.0), e(0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 16.0, 2.0, 0.0, 1.0, 0.0, 0.0, 2.0, 0.0, 8.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 6.0), c(0xFFFFFF, 0x955A3E, 0x915840, 0x30DBBD), "Jukeboxia", "蓄音機精ジュケボーシャ"),</v>
+        <v>JUKEBOX(135, { MIRAGE }, 4, 58, 1.00, m(0.1, 6.0, 5.0, 10.0, 13.0, 0.0), e(0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 16.0, 2.0, 0.0, 3.0, 0.0, 0.0, 2.0, 0.0, 8.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 6.0), c(0xFFFFFF, 0x955A3E, 0x915840, 0x30DBBD), "Jukeboxia", "蓄音機精ジュケボーシャ"),</v>
       </c>
       <c r="BC137" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -26045,7 +26133,9 @@
       <c r="AL139" s="12">
         <v>16</v>
       </c>
-      <c r="AM139" s="12"/>
+      <c r="AM139" s="12">
+        <v>10</v>
+      </c>
       <c r="AN139" s="12"/>
       <c r="AO139" s="12">
         <v>7</v>
@@ -26074,7 +26164,7 @@
       </c>
       <c r="AZ139" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="BA139" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -26082,7 +26172,7 @@
       </c>
       <c r="BB139" s="11" t="str" cm="1">
         <f t="array" ref="BB139">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>MIRAGE(137, { null }, 5, 50, 1.00, m(10.0, 5.0, 5.0, 2.0, 2.0, 1.0), e(0.0, 0.0, 2.0, 2.0, 0.0, 0.0, 8.0, 0.0, 0.0, 16.0, 0.0, 0.0, 7.0, 3.0, 2.0, 18.0, 0.0, 6.0, 0.0, 0.0, 0.0, 10.0, 13.0), c(0xFFBE80, 0x84FFFF, 0x66FFFF, 0xFFAFE0), "Miragia", "妖精ミラージャ"),</v>
+        <v>MIRAGE(137, { null }, 5, 50, 1.00, m(10.0, 5.0, 5.0, 2.0, 2.0, 1.0), e(0.0, 0.0, 2.0, 2.0, 0.0, 0.0, 8.0, 0.0, 0.0, 16.0, 10.0, 0.0, 7.0, 3.0, 2.0, 18.0, 0.0, 6.0, 0.0, 0.0, 0.0, 10.0, 13.0), c(0xFFBE80, 0x84FFFF, 0x66FFFF, 0xFFAFE0), "Miragia", "妖精ミラージャ"),</v>
       </c>
       <c r="BC139" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -26485,7 +26575,9 @@
       </c>
       <c r="AK142" s="12"/>
       <c r="AL142" s="12"/>
-      <c r="AM142" s="12"/>
+      <c r="AM142" s="12">
+        <v>1</v>
+      </c>
       <c r="AN142" s="12"/>
       <c r="AO142" s="12"/>
       <c r="AP142" s="12"/>
@@ -26508,7 +26600,7 @@
       </c>
       <c r="AZ142" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA142" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -26516,7 +26608,7 @@
       </c>
       <c r="BB142" s="11" t="str" cm="1">
         <f t="array" ref="BB142">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>BUTTON(140, { MIRAGE }, 1, 22, 1.00, m(0.0, 10.0, 0.0, 8.0, 3.0, 5.0), e(0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 1.0, 0.0, 0.0, 8.0, 0.0, 10.0), c(0xFFFFFF, 0xBC9862, 0xBC9862, 0xD40102), "Buttonia", "釦精ブットーニャ"),</v>
+        <v>BUTTON(140, { MIRAGE }, 1, 22, 1.00, m(0.0, 10.0, 0.0, 8.0, 3.0, 5.0), e(0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 3.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 4.0, 0.0, 1.0, 0.0, 0.0, 8.0, 0.0, 10.0), c(0xFFFFFF, 0xBC9862, 0xBC9862, 0xD40102), "Buttonia", "釦精ブットーニャ"),</v>
       </c>
       <c r="BC142" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -26913,7 +27005,9 @@
       </c>
       <c r="AK145" s="12"/>
       <c r="AL145" s="12"/>
-      <c r="AM145" s="12"/>
+      <c r="AM145" s="12">
+        <v>1</v>
+      </c>
       <c r="AN145" s="12">
         <v>1</v>
       </c>
@@ -26934,7 +27028,7 @@
       <c r="AY145" s="12"/>
       <c r="AZ145" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA145" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -26942,7 +27036,7 @@
       </c>
       <c r="BB145" s="11" t="str" cm="1">
         <f t="array" ref="BB145">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>BOOK(143, { MIRAGE }, 3, 30, 1.00, m(1.0, 5.0, 5.0, 10.0, 3.0, 2.0), e(1.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 14.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xD6D6D6, 0x654B17, 0x654B17, 0x000000), "Bookia", "本精ボーキャ"),</v>
+        <v>BOOK(143, { MIRAGE }, 3, 30, 1.00, m(1.0, 5.0, 5.0, 10.0, 3.0, 2.0), e(1.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 1.0, 1.0, 0.0, 0.0, 0.0, 14.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xD6D6D6, 0x654B17, 0x654B17, 0x000000), "Bookia", "本精ボーキャ"),</v>
       </c>
       <c r="BC145" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -27193,7 +27287,9 @@
       </c>
       <c r="AK147" s="12"/>
       <c r="AL147" s="12"/>
-      <c r="AM147" s="12"/>
+      <c r="AM147" s="12">
+        <v>8</v>
+      </c>
       <c r="AN147" s="12"/>
       <c r="AO147" s="12">
         <v>1</v>
@@ -27224,7 +27320,7 @@
       </c>
       <c r="AZ147" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="BA147" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -27232,7 +27328,7 @@
       </c>
       <c r="BB147" s="11" t="str" cm="1">
         <f t="array" ref="BB147">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>BAT(145, { MIRAGE }, 4, 28, 1.00, m(0.0, 1.0, 8.0, 0.0, 10.0, 1.0), e(2.0, 0.0, 1.0, 0.0, 0.0, 2.0, 0.0, 8.0, 0.0, 0.0, 0.0, 0.0, 1.0, 1.0, 6.0, 4.0, 1.0, 4.0, 0.0, 0.0, 0.0, 10.0, 10.0), c(0x4C3E30, 0x5B482B, 0x2C2014, 0x221F1D), "Batia", "蝙蝠精バーチャ"),</v>
+        <v>BAT(145, { MIRAGE }, 4, 28, 1.00, m(0.0, 1.0, 8.0, 0.0, 10.0, 1.0), e(2.0, 0.0, 1.0, 0.0, 0.0, 2.0, 0.0, 8.0, 0.0, 0.0, 8.0, 0.0, 1.0, 1.0, 6.0, 4.0, 1.0, 4.0, 0.0, 0.0, 0.0, 10.0, 10.0), c(0x4C3E30, 0x5B482B, 0x2C2014, 0x221F1D), "Batia", "蝙蝠精バーチャ"),</v>
       </c>
       <c r="BC147" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -28197,9 +28293,7 @@
       <c r="AJ154" s="12"/>
       <c r="AK154" s="12"/>
       <c r="AL154" s="12"/>
-      <c r="AM154" s="12">
-        <v>1</v>
-      </c>
+      <c r="AM154" s="12"/>
       <c r="AN154" s="12"/>
       <c r="AO154" s="12"/>
       <c r="AP154" s="12"/>
@@ -28218,7 +28312,7 @@
       <c r="AY154" s="12"/>
       <c r="AZ154" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA154" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -28226,7 +28320,7 @@
       </c>
       <c r="BB154" s="11" t="str" cm="1">
         <f t="array" ref="BB154">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>COOKED_RABBIT(152, { RAW_RABBIT }, 4, 32, 1.00, m(0.0, 0.0, 6.0, 0.0, 10.0, 0.0), e(0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 13.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xC87847, 0xDA9F7A, 0xC87847, 0xA95F32), "Cookede Rabbitia", "焼兎精ツォーケーデラッビーチャ"),</v>
+        <v>COOKED_RABBIT(152, { RAW_RABBIT }, 4, 32, 1.00, m(0.0, 0.0, 6.0, 0.0, 10.0, 0.0), e(0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 13.0, 0.0, 4.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xC87847, 0xDA9F7A, 0xC87847, 0xA95F32), "Cookede Rabbitia", "焼兎精ツォーケーデラッビーチャ"),</v>
       </c>
       <c r="BC154" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -28337,7 +28431,9 @@
         <v>1</v>
       </c>
       <c r="AL155" s="12"/>
-      <c r="AM155" s="12"/>
+      <c r="AM155" s="12">
+        <v>1</v>
+      </c>
       <c r="AN155" s="12"/>
       <c r="AO155" s="12">
         <v>1</v>
@@ -28362,7 +28458,7 @@
       <c r="AY155" s="12"/>
       <c r="AZ155" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BA155" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -28370,7 +28466,7 @@
       </c>
       <c r="BB155" s="11" t="str" cm="1">
         <f t="array" ref="BB155">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>RABBIT_STEW(153, { COOKED_RABBIT }, 4, 35, 1.00, m(0.0, 0.0, 8.0, 0.0, 10.0, 0.0), e(0.0, 2.0, 0.0, 0.0, 4.0, 6.0, 0.0, 0.0, 1.0, 0.0, 0.0, 0.0, 1.0, 0.0, 15.0, 1.0, 4.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xCC9978, 0xD28155, 0xD28155, 0xFF8E09), "Rabbite Stewia", "兎煮精ラッビーテステーウャ"),</v>
+        <v>RABBIT_STEW(153, { COOKED_RABBIT }, 4, 35, 1.00, m(0.0, 0.0, 8.0, 0.0, 10.0, 0.0), e(0.0, 2.0, 0.0, 0.0, 4.0, 6.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 1.0, 0.0, 15.0, 1.0, 4.0, 1.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(0xCC9978, 0xD28155, 0xD28155, 0xFF8E09), "Rabbite Stewia", "兎煮精ラッビーテステーウャ"),</v>
       </c>
       <c r="BC155" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -28488,7 +28584,7 @@
       </c>
       <c r="AL156" s="12"/>
       <c r="AM156" s="12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AN156" s="12">
         <v>13</v>
@@ -28511,14 +28607,14 @@
       <c r="AV156" s="12"/>
       <c r="AW156" s="12"/>
       <c r="AX156" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY156" s="12">
         <v>7</v>
       </c>
       <c r="AZ156" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="BA156" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -28526,7 +28622,7 @@
       </c>
       <c r="BB156" s="11" t="str" cm="1">
         <f t="array" ref="BB156">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>TRINITROTOLUENE(154, { MIRAGE }, 3, 41, 1.00, m(0.0, 11.0, 0.0, 10.0, 0.0, 0.0), e(12.0, 1.0, 0.0, 4.0, 5.0, 0.0, 2.0, 6.0, 1.0, 0.0, 9.0, 13.0, 6.0, 2.0, 0.0, 3.0, 12.0, 0.0, 0.0, 0.0, 0.0, 3.0, 7.0), c(0xB4B4B5, 0xD8431A, 0xD8431A, 0x000000), "Trinitrotoluenia", "茶褐薬精トリニトロトルエーニャ"),</v>
+        <v>TRINITROTOLUENE(154, { MIRAGE }, 3, 41, 1.00, m(0.0, 11.0, 0.0, 10.0, 0.0, 0.0), e(12.0, 1.0, 0.0, 4.0, 5.0, 0.0, 2.0, 6.0, 1.0, 0.0, 2.0, 13.0, 6.0, 2.0, 0.0, 3.0, 12.0, 0.0, 0.0, 0.0, 0.0, 5.0, 7.0), c(0xB4B4B5, 0xD8431A, 0xD8431A, 0x000000), "Trinitrotoluenia", "茶褐薬精トリニトロトルエーニャ"),</v>
       </c>
       <c r="BC156" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -28643,7 +28739,9 @@
       </c>
       <c r="AK157" s="12"/>
       <c r="AL157" s="12"/>
-      <c r="AM157" s="12"/>
+      <c r="AM157" s="12">
+        <v>7</v>
+      </c>
       <c r="AN157" s="12">
         <v>1</v>
       </c>
@@ -28672,7 +28770,7 @@
       </c>
       <c r="AZ157" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA157" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -28680,7 +28778,7 @@
       </c>
       <c r="BB157" s="11" t="str" cm="1">
         <f t="array" ref="BB157">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>MANDRAKE(155, { MIRAGE_FLOWER }, 4, 49, 1.00, m(3.0, 22.0, 16.0, 0.0, 10.0, 0.0), e(4.0, 3.0, 4.0, 0.0, 0.0, 2.0, 0.0, 8.0, 0.0, 0.0, 0.0, 1.0, 12.0, 0.0, 10.0, 8.0, 2.0, 3.0, 0.0, 0.0, 0.0, 0.0, 9.0), c(0xC65D43, 0x3DA400, 0x367A00, 0x833EFF), "Mandrakia", "恋茄子精マンドラーキャ"),</v>
+        <v>MANDRAKE(155, { MIRAGE_FLOWER }, 4, 49, 1.00, m(3.0, 22.0, 16.0, 0.0, 10.0, 0.0), e(4.0, 3.0, 4.0, 0.0, 0.0, 2.0, 0.0, 8.0, 0.0, 0.0, 7.0, 1.0, 12.0, 0.0, 10.0, 8.0, 2.0, 3.0, 0.0, 0.0, 0.0, 0.0, 9.0), c(0xC65D43, 0x3DA400, 0x367A00, 0x833EFF), "Mandrakia", "恋茄子精マンドラーキャ"),</v>
       </c>
       <c r="BC157" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -28798,7 +28896,7 @@
         <v>6</v>
       </c>
       <c r="AM158" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN158" s="12">
         <v>4</v>
@@ -28832,7 +28930,7 @@
       </c>
       <c r="AZ158" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BA158" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -28840,7 +28938,7 @@
       </c>
       <c r="BB158" s="11" t="str" cm="1">
         <f t="array" ref="BB158">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>VELOPEDA(156, { MIRAGE_FLOWER }, 4, 33, 1.00, m(4.0, 0.0, 59.0, 0.0, 10.0, 0.0), e(11.0, 1.0, 4.0, 0.0, 1.0, 2.0, 0.0, 0.0, 0.0, 6.0, 4.0, 4.0, 1.0, 5.0, 1.0, 11.0, 1.0, 5.0, 0.0, 0.0, 0.0, 1.0, 9.0), c(0x8BD100, 0xD52D2D, 0xB51414, 0x840707), "Velopedia", "呪草精ヴェロページャ"),</v>
+        <v>VELOPEDA(156, { MIRAGE_FLOWER }, 4, 33, 1.00, m(4.0, 0.0, 59.0, 0.0, 10.0, 0.0), e(11.0, 1.0, 4.0, 0.0, 1.0, 2.0, 0.0, 0.0, 0.0, 6.0, 3.0, 4.0, 1.0, 5.0, 1.0, 11.0, 1.0, 5.0, 0.0, 0.0, 0.0, 1.0, 9.0), c(0x8BD100, 0xD52D2D, 0xB51414, 0x840707), "Velopedia", "呪草精ヴェロページャ"),</v>
       </c>
       <c r="BC158" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -29097,7 +29195,9 @@
       <c r="AJ160" s="12"/>
       <c r="AK160" s="12"/>
       <c r="AL160" s="12"/>
-      <c r="AM160" s="12"/>
+      <c r="AM160" s="12">
+        <v>1</v>
+      </c>
       <c r="AN160" s="12"/>
       <c r="AO160" s="12">
         <v>1</v>
@@ -29128,7 +29228,7 @@
       </c>
       <c r="AZ160" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BA160" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -29136,7 +29236,7 @@
       </c>
       <c r="BB160" s="11" t="str" cm="1">
         <f t="array" ref="BB160">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>AUTUMN(158, { TIME }, 4, 41, 1.00, m(0.0, 0.0, 10.0, 3.0, 10.0, 5.0), e(0.0, 6.0, 13.0, 3.0, 2.0, 2.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 10.0, 4.0, 2.0, 0.0, 0.0, 6.0, 2.0, 3.0, 2.0), c(0xFFE260, 0xFFB72C, 0xFFB72C, 0xFF4C00), "Autumnia", "秋精アウトゥムニャ"),</v>
+        <v>AUTUMN(158, { TIME }, 4, 41, 1.00, m(0.0, 0.0, 10.0, 3.0, 10.0, 5.0), e(0.0, 6.0, 13.0, 3.0, 2.0, 2.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 1.0, 0.0, 10.0, 4.0, 2.0, 0.0, 0.0, 6.0, 2.0, 3.0, 2.0), c(0xFFE260, 0xFFB72C, 0xFFB72C, 0xFF4C00), "Autumnia", "秋精アウトゥムニャ"),</v>
       </c>
       <c r="BC160" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -29251,7 +29351,9 @@
       <c r="AJ161" s="12"/>
       <c r="AK161" s="12"/>
       <c r="AL161" s="12"/>
-      <c r="AM161" s="12"/>
+      <c r="AM161" s="12">
+        <v>1</v>
+      </c>
       <c r="AN161" s="12"/>
       <c r="AO161" s="12">
         <v>6</v>
@@ -29278,7 +29380,7 @@
       </c>
       <c r="AZ161" s="11">
         <f>SUM(テーブル1[[#This Row],[攻撃]:[感覚]])</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BA161" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
@@ -29286,7 +29388,7 @@
       </c>
       <c r="BB161" s="11" t="str" cm="1">
         <f t="array" ref="BB161">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>AVALON(159, { MIRAGE }, 5, 77, 1.40, m(17.0, 0.0, 95.0, 29.0, 24.0, 10.0), e(0.0, 5.0, 12.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 6.0, 0.0, 14.0, 7.0, 3.0, 2.0, 0.0, 0.0, 0.0, 0.0, 6.0), c(0xFFE4CA, 0xE1FFCE, 0xD0FFE6, 0xFFCAFF), "Avalonia", "阿瓦隆精アヴァローニャ"),</v>
+        <v>AVALON(159, { MIRAGE }, 5, 77, 1.40, m(17.0, 0.0, 95.0, 29.0, 24.0, 10.0), e(0.0, 5.0, 12.0, 0.0, 0.0, 3.0, 0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 6.0, 0.0, 14.0, 7.0, 3.0, 2.0, 0.0, 0.0, 0.0, 0.0, 6.0), c(0xFFE4CA, 0xE1FFCE, 0xD0FFE6, 0xFFCAFF), "Avalonia", "阿瓦隆精アヴァローニャ"),</v>
       </c>
       <c r="BC161" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -29298,15 +29400,27 @@
       <c r="B162" s="4">
         <v>1</v>
       </c>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="6"/>
+      <c r="C162" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>948</v>
+      </c>
       <c r="F162" s="6" t="s">
-        <v>976</v>
-      </c>
-      <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="6"/>
+        <v>941</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="I162" s="6" t="s">
+        <v>951</v>
+      </c>
       <c r="J162" s="10"/>
       <c r="K162" s="3"/>
       <c r="L162" s="8"/>
@@ -29382,11 +29496,11 @@
       </c>
       <c r="BA162" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
-        <v/>
+        <v>netherWart</v>
       </c>
       <c r="BB162" s="11" t="str" cm="1">
         <f t="array" ref="BB162">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>(, {  }, , , 0.00, m(0.0, 0.0, 0.0, 0.0, 0.0, 0.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(), "", "金人参"),</v>
+        <v>NETHER_WART(, { MIRAGE }, , , 0.00, m(0.0, 0.0, 0.0, 0.0, 0.0, 0.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(), "Nethere Wartia", "地獄疣精ネテーレワルチャ"),</v>
       </c>
       <c r="BC162" s="11" t="e">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
@@ -29398,27 +29512,15 @@
       <c r="B163" s="4">
         <v>1</v>
       </c>
-      <c r="C163" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>948</v>
-      </c>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="6"/>
       <c r="F163" s="6" t="s">
-        <v>941</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>949</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>950</v>
-      </c>
-      <c r="I163" s="6" t="s">
-        <v>951</v>
-      </c>
+        <v>976</v>
+      </c>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
       <c r="J163" s="10"/>
       <c r="K163" s="3"/>
       <c r="L163" s="8"/>
@@ -29494,11 +29596,11 @@
       </c>
       <c r="BA163" s="11" t="str">
         <f>LOWER(LEFT(テーブル1[[#This Row],[Type]],1))&amp;MID(SUBSTITUTE(PROPER(テーブル1[[#This Row],[Type]]),"_",""),2,LEN(テーブル1[[#This Row],[Type]]))</f>
-        <v>netherWart</v>
+        <v/>
       </c>
       <c r="BB163" s="11" t="str" cm="1">
         <f t="array" ref="BB163">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>NETHER_WART(, { MIRAGE }, , , 0.00, m(0.0, 0.0, 0.0, 0.0, 0.0, 0.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(), "Nethere Wartia", "地獄疣精ネテーレワルチャ"),</v>
+        <v>(, {  }, , , 0.00, m(0.0, 0.0, 0.0, 0.0, 0.0, 0.0), e(0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0), c(), "", "金人参"),</v>
       </c>
       <c r="BC163" s="11" t="e">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>

--- a/src/main/others/FairyList.xlsx
+++ b/src/main/others/FairyList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F52E741-4954-429E-8DB9-FAAD95FC4823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3687D4F-F884-485C-9363-D68DBB8AB23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6150" yWindow="900" windowWidth="20325" windowHeight="13215" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
   </bookViews>
@@ -5744,10 +5744,10 @@
   <dimension ref="A1:BB225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AX147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G183" sqref="G183"/>
+      <selection pane="bottomRight" activeCell="BA149" sqref="BA149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17234,7 +17234,7 @@
         <v>447</v>
       </c>
       <c r="J81" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K81" s="8">
         <v>12</v>
@@ -17262,7 +17262,7 @@
       </c>
       <c r="S81" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2.3784142300054421</v>
+        <v>2.8284271247461898</v>
       </c>
       <c r="T81" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(L81:Q81)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
@@ -17270,31 +17270,31 @@
       </c>
       <c r="U81" s="5">
         <f>テーブル1[[#This Row],[特殊倍率]]*テーブル1[[#This Row],[分散度倍率]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.827662900458801</v>
+        <v>2.173469725052116</v>
       </c>
       <c r="V81" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])*50*テーブル1[[#This Row],[効率]]</f>
-        <v>6.3022858636510373</v>
+        <v>7.4947231898348825</v>
       </c>
       <c r="W81" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])*50*テーブル1[[#This Row],[効率]]</f>
-        <v>15.755714659127596</v>
+        <v>18.736807974587208</v>
       </c>
       <c r="X81" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])*50*テーブル1[[#This Row],[効率]]</f>
-        <v>31.511429318255193</v>
+        <v>37.473615949174416</v>
       </c>
       <c r="Y81" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])*50*テーブル1[[#This Row],[効率]]</f>
-        <v>7.8778573295637981</v>
+        <v>9.368403987293604</v>
       </c>
       <c r="Z81" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])*50*テーブル1[[#This Row],[効率]]</f>
-        <v>22.058000522778631</v>
+        <v>26.231531164422091</v>
       </c>
       <c r="AA81" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])*50*テーブル1[[#This Row],[効率]]</f>
-        <v>7.8778573295637981</v>
+        <v>9.368403987293604</v>
       </c>
       <c r="AB81" s="3">
         <v>3</v>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="BA81" s="11" t="str" cm="1">
         <f t="array" ref="BA81">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>SANTA_CLAUS(79, { MIRAGE }, 6, 12, 1.00, m(4.0, 10.0, 20.0, 5.0, 14.0, 5.0), e(3.0, 6.0, 0.0, 3.0, 0.0, 2.0, 0.0, 12.0, 14.0, 7.0, 9.0, 1.0, 1.0, 1.0, 7.0, 9.0, 5.0, 1.0, 10.0, 6.0, 0.0, 12.0, 12.0), c(0xCDBBAD, 0xD61728, 0xDA0117, 0xDAD8D4), "Sante Clausia", "聖夜老人精サンテツラウシャ"),</v>
+        <v>SANTA_CLAUS(79, { MIRAGE }, 7, 12, 1.00, m(4.0, 10.0, 20.0, 5.0, 14.0, 5.0), e(3.0, 6.0, 0.0, 3.0, 0.0, 2.0, 0.0, 12.0, 14.0, 7.0, 9.0, 1.0, 1.0, 1.0, 7.0, 9.0, 5.0, 1.0, 10.0, 6.0, 0.0, 12.0, 12.0), c(0xCDBBAD, 0xD61728, 0xDA0117, 0xDAD8D4), "Sante Clausia", "聖夜老人精サンテツラウシャ"),</v>
       </c>
       <c r="BB81" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
-        <v>26.466048510513062</v>
+        <v>44.510410636842686</v>
       </c>
     </row>
     <row r="82" spans="1:54" x14ac:dyDescent="0.15">
@@ -21596,7 +21596,7 @@
         <v>605</v>
       </c>
       <c r="J111" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K111" s="8">
         <v>33</v>
@@ -21620,7 +21620,7 @@
       </c>
       <c r="S111" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2.3784142300054421</v>
+        <v>2.8284271247461898</v>
       </c>
       <c r="T111" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(L111:Q111)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
@@ -21628,11 +21628,11 @@
       </c>
       <c r="U111" s="5">
         <f>テーブル1[[#This Row],[特殊倍率]]*テーブル1[[#This Row],[分散度倍率]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>2.0220990373119712</v>
+        <v>2.4046945624115486</v>
       </c>
       <c r="V111" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])*50*テーブル1[[#This Row],[効率]]</f>
-        <v>14.768139036548103</v>
+        <v>17.562376017612433</v>
       </c>
       <c r="W111" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])*50*テーブル1[[#This Row],[効率]]</f>
@@ -21640,15 +21640,15 @@
       </c>
       <c r="X111" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])*50*テーブル1[[#This Row],[効率]]</f>
-        <v>27.264256682858036</v>
+        <v>32.422848032515262</v>
       </c>
       <c r="Y111" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])*50*テーブル1[[#This Row],[効率]]</f>
-        <v>12.496117646309933</v>
+        <v>14.860472014902827</v>
       </c>
       <c r="Z111" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])*50*テーブル1[[#This Row],[効率]]</f>
-        <v>46.576438499882485</v>
+        <v>55.389032055546906</v>
       </c>
       <c r="AA111" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])*50*テーブル1[[#This Row],[効率]]</f>
@@ -21721,11 +21721,11 @@
       </c>
       <c r="BA111" s="11" t="str" cm="1">
         <f t="array" ref="BA111">UPPER(テーブル1[[#This Row],[Type]])&amp;"("&amp;テーブル1[[#This Row],[No]]&amp;", { "&amp;_xlfn.XLOOKUP(テーブル1[[#This Row],[上位妖精]],テーブル1[Type],UPPER(テーブル1[Type]),"null")&amp;" }, "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", "&amp;TEXT(テーブル1[[#This Row],[特殊倍率]], "0.00")&amp;", m("&amp;TEXT(テーブル1[[#This Row],[基礎Shine]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Fire]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Wind]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Gaia]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Aqua]]*1, "0.0")&amp;", "&amp;TEXT(テーブル1[[#This Row],[基礎Dark]]*1, "0.0")&amp;"), e("&amp;_xlfn.TEXTJOIN(", ",FALSE,TEXT(テーブル1[[#This Row],[攻撃]:[感覚]]*1, "0.0"))&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"), """&amp;テーブル1[[#This Row],[英名]]&amp;""", """&amp;テーブル1[[#This Row],[短縮和名]]&amp;テーブル1[[#This Row],[和名]]&amp;"""),"</f>
-        <v>CUPID(109, { MIRAGE }, 6, 33, 1.00, m(13.0, 0.0, 24.0, 11.0, 41.0, 0.0), e(6.0, 3.0, 2.0, 6.0, 0.0, 1.0, 0.0, 10.0, 3.0, 8.0, 11.0, 7.0, 2.0, 0.0, 16.0, 11.0, 2.0, 10.0, 0.0, 0.0, 0.0, 12.0, 14.0), c(0xCDBBAD, 0xE4F4FF, 0xDDEEFF, 0x893F1E), "Cupidia", "恋射手精ツピージャ"),</v>
+        <v>CUPID(109, { MIRAGE }, 7, 33, 1.00, m(13.0, 0.0, 24.0, 11.0, 41.0, 0.0), e(6.0, 3.0, 2.0, 6.0, 0.0, 1.0, 0.0, 10.0, 3.0, 8.0, 11.0, 7.0, 2.0, 0.0, 16.0, 11.0, 2.0, 10.0, 0.0, 0.0, 0.0, 12.0, 14.0), c(0xCDBBAD, 0xE4F4FF, 0xDDEEFF, 0x893F1E), "Cupidia", "恋射手精ツピージャ"),</v>
       </c>
       <c r="BB111" s="11">
         <f>テーブル1[[#This Row],[Gaia]]*(テーブル1[[#This Row],[Aqua]]+テーブル1[[#This Row],[収穫]])*テーブル1[[#This Row],[効率]]/テーブル1[[#This Row],[コスト]]</f>
-        <v>37.195402108333731</v>
+        <v>62.145185040653843</v>
       </c>
     </row>
     <row r="112" spans="1:54" x14ac:dyDescent="0.15">
